--- a/input_data/BADGE_ASSIGNMENTS_FINAL.xlsx
+++ b/input_data/BADGE_ASSIGNMENTS_FINAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="894">
   <si>
     <t xml:space="preserve">First Name </t>
   </si>
@@ -709,15 +709,6 @@
     <t>ELBETHEL</t>
   </si>
   <si>
-    <t>BETHELHEM&amp;E</t>
-  </si>
-  <si>
-    <t>NAHOM&amp;A</t>
-  </si>
-  <si>
-    <t>ZELALEM&amp;A</t>
-  </si>
-  <si>
     <t>YOHANNES</t>
   </si>
   <si>
@@ -727,9 +718,33 @@
     <t>DN</t>
   </si>
   <si>
+    <t>ANABEL</t>
+  </si>
+  <si>
     <t>MATTHEW</t>
   </si>
   <si>
+    <t>LBETHEL</t>
+  </si>
+  <si>
+    <t>SSEY</t>
+  </si>
+  <si>
+    <t>BENEZER</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BRAHAM</t>
+  </si>
+  <si>
+    <t>NABEL</t>
+  </si>
+  <si>
+    <t>ARON</t>
+  </si>
+  <si>
     <t>ADUGNA</t>
   </si>
   <si>
@@ -1318,7 +1333,7 @@
     <t>AMAHA</t>
   </si>
   <si>
-    <t>A&amp;E DERBAW</t>
+    <t>A DERBAW</t>
   </si>
   <si>
     <t>- HAILE</t>
@@ -1330,9 +1345,18 @@
     <t>DR. BINYAM BELACHEW</t>
   </si>
   <si>
+    <t>KELKAY</t>
+  </si>
+  <si>
+    <t>KALABE DERESSA</t>
+  </si>
+  <si>
     <t>BIRRU</t>
   </si>
   <si>
+    <t>ADMAS</t>
+  </si>
+  <si>
     <t>301A</t>
   </si>
   <si>
@@ -1675,853 +1699,925 @@
     <t>513A</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>301B</t>
   </si>
   <si>
     <t>406D</t>
   </si>
   <si>
-    <t>414C</t>
-  </si>
-  <si>
     <t>513D</t>
   </si>
   <si>
     <t>514C</t>
   </si>
   <si>
+    <t>313D</t>
+  </si>
+  <si>
+    <t>414D</t>
+  </si>
+  <si>
+    <t>511B</t>
+  </si>
+  <si>
+    <t>604B</t>
+  </si>
+  <si>
     <t>604C</t>
   </si>
   <si>
-    <t>604B</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T35</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T17 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T29</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T5 | SUN T7</t>
+    <t>604D</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T12 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T5</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T17</t>
+  </si>
+  <si>
+    <t>SAT T34 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T5</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T10 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T35</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T27</t>
+  </si>
+  <si>
+    <t>SAT T32 | SUN T17</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T20</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T19 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T32 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T11 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T9 | SUN T10</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T13 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T11 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T10 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T21</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T9 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T13 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T9 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T10 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T19 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T12 | SUN T5</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T21</t>
+  </si>
+  <si>
+    <t>SAT T4 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T9 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T10</t>
+  </si>
+  <si>
+    <t>SAT T13 | SUN T29</t>
+  </si>
+  <si>
+    <t>SAT T9 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T5 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T10 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T35 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T23</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T10</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T23</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T10</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T17</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T13 | SUN T35</t>
+  </si>
+  <si>
+    <t>SAT T34 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T20</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T31</t>
+  </si>
+  <si>
+    <t>SAT T11 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T4 | SUN T23</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T4 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T34 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T13 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T31</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T35</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T12 | SUN T29</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T35 | SUN T29</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T32 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T12</t>
   </si>
   <si>
     <t>SAT T6 | SUN T27</t>
   </si>
   <si>
-    <t>SAT T34 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T12 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T4 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T12</t>
+    <t>SAT T32 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T5 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T12 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T29</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T20</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T35</t>
+  </si>
+  <si>
+    <t>SAT T5 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T32 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T5 | SUN T23</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T9 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T31</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T11 | SUN T21</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T10 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T21</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T35 | SUN T31</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T35 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T10</t>
+  </si>
+  <si>
+    <t>SAT T5 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T20</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T23</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T35 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T9 | SUN T27</t>
+  </si>
+  <si>
+    <t>SAT T10 | SUN T31</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T13 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T17</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T5 | SUN T27</t>
+  </si>
+  <si>
+    <t>SAT T35 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T12 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T35 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T32 | SUN T23</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T4 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T10 | SUN T2</t>
   </si>
   <si>
     <t>SAT T26 | SUN T33</t>
   </si>
   <si>
-    <t>SAT T19 | SUN T32</t>
+    <t>SAT T14 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T4 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T19 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T29</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T11 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T34 | SUN T22</t>
   </si>
   <si>
     <t>SAT T2 | SUN T18</t>
   </si>
   <si>
-    <t>SAT T26 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T31 | SUN T35</t>
-  </si>
-  <si>
-    <t>SAT T19 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T31</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T34</t>
-  </si>
-  <si>
     <t>SAT T25 | SUN T2</t>
   </si>
   <si>
-    <t>SAT T1 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T23</t>
-  </si>
-  <si>
-    <t>SAT T31 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T17</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T9 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T32 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T10 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T6 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T32 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T6 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T4 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T16</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T6 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T11 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T31 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T17 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T20</t>
-  </si>
-  <si>
-    <t>SAT T19 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T13 | SUN T20</t>
-  </si>
-  <si>
-    <t>SAT T31 | SUN T27</t>
-  </si>
-  <si>
-    <t>SAT T6 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T16</t>
+    <t>SAT T35 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T27</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T21</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T32 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T5</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T8</t>
   </si>
   <si>
     <t>SAT T12 | SUN T34</t>
   </si>
   <si>
-    <t>SAT T12 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T32 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T6 | SUN T21</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T11 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T4 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T5 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T9 | SUN T21</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T16</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T19 | SUN T24</t>
+    <t>SAT T33 | SUN T20</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T35</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T25</t>
   </si>
   <si>
     <t>SAT T14 | SUN T6</t>
   </si>
   <si>
-    <t>SAT T22 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T31 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T31 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T10 | SUN T20</t>
-  </si>
-  <si>
-    <t>SAT T19 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T13 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T23</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T17 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T31</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T32 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T35</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T17</t>
-  </si>
-  <si>
-    <t>SAT T10 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T12 | SUN T11</t>
+    <t>SAT T7 | SUN T27</t>
+  </si>
+  <si>
+    <t>SAT T34 | SUN T10</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T27</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T33</t>
   </si>
   <si>
     <t>SAT T17 | SUN T9</t>
   </si>
   <si>
-    <t>SAT T7 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T10 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T32 | SUN T21</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T17 | SUN T23</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T11 | SUN T29</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T23</t>
-  </si>
-  <si>
-    <t>SAT T19 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T34 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T31 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T16</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T27</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T13 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T34 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T4 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T19 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T9 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T5 | SUN T23</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T32 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T11 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T31 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T11 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T31</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T35</t>
-  </si>
-  <si>
-    <t>SAT T11 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T17</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T31</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T4 | SUN T21</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T4 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T17</t>
-  </si>
-  <si>
-    <t>SAT T5 | SUN T21</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T20</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T17</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T19 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T17</t>
-  </si>
-  <si>
-    <t>SAT T34 | SUN T23</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T13 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T31</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T16</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T12 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T5 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T29</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T34 | SUN T17</t>
+    <t>SAT T35 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T13 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T14</t>
   </si>
   <si>
     <t>SAT T28 | SUN T34</t>
   </si>
   <si>
-    <t>SAT T26 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T12 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T21</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T19</t>
+    <t>SAT T26 | SUN T35</t>
   </si>
   <si>
     <t>SAT T35 | SUN T27</t>
   </si>
   <si>
-    <t>SAT T4 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T35</t>
-  </si>
-  <si>
-    <t>SAT T11 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T19 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T9 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T16</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T27</t>
-  </si>
-  <si>
-    <t>SAT T9 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T13 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T6 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T17 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T16</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T22</t>
+    <t>SAT T16 | SUN T13</t>
+  </si>
+  <si>
+    <t>DE 1</t>
+  </si>
+  <si>
+    <t>DE 17</t>
+  </si>
+  <si>
+    <t>DA 6</t>
+  </si>
+  <si>
+    <t>DE 6</t>
+  </si>
+  <si>
+    <t>DA 7</t>
+  </si>
+  <si>
+    <t>DE 19</t>
+  </si>
+  <si>
+    <t>DE 24</t>
+  </si>
+  <si>
+    <t>DA 5</t>
+  </si>
+  <si>
+    <t>DE 13</t>
+  </si>
+  <si>
+    <t>DE 4</t>
+  </si>
+  <si>
+    <t>DE 3</t>
+  </si>
+  <si>
+    <t>DE 7</t>
+  </si>
+  <si>
+    <t>DE 5</t>
+  </si>
+  <si>
+    <t>DA 4</t>
+  </si>
+  <si>
+    <t>DA 1</t>
+  </si>
+  <si>
+    <t>DA 2</t>
+  </si>
+  <si>
+    <t>DE 21</t>
+  </si>
+  <si>
+    <t>DA 3</t>
+  </si>
+  <si>
+    <t>DE 14</t>
+  </si>
+  <si>
+    <t>DE 18</t>
+  </si>
+  <si>
+    <t>DE 23</t>
+  </si>
+  <si>
+    <t>DE 15</t>
+  </si>
+  <si>
+    <t>DE 10</t>
+  </si>
+  <si>
+    <t>DE 11</t>
+  </si>
+  <si>
+    <t>DE 2</t>
+  </si>
+  <si>
+    <t>DE 8</t>
   </si>
   <si>
     <t>DE 9</t>
@@ -2530,166 +2626,76 @@
     <t>DE 12</t>
   </si>
   <si>
-    <t>DA 4</t>
-  </si>
-  <si>
-    <t>DE 1</t>
-  </si>
-  <si>
-    <t>DA 7</t>
-  </si>
-  <si>
-    <t>DE 10</t>
-  </si>
-  <si>
-    <t>DE 17</t>
-  </si>
-  <si>
-    <t>DA 6</t>
+    <t>DE 16</t>
+  </si>
+  <si>
+    <t>DA 9</t>
   </si>
   <si>
     <t>DE 22</t>
   </si>
   <si>
-    <t>DE 5</t>
-  </si>
-  <si>
-    <t>DA 5</t>
-  </si>
-  <si>
-    <t>DE 14</t>
-  </si>
-  <si>
-    <t>DE 6</t>
-  </si>
-  <si>
-    <t>DE 8</t>
+    <t>DE 20</t>
   </si>
   <si>
     <t>DA 8</t>
   </si>
   <si>
-    <t>DA 1</t>
-  </si>
-  <si>
-    <t>DE 15</t>
-  </si>
-  <si>
-    <t>DE 4</t>
-  </si>
-  <si>
-    <t>DE 16</t>
-  </si>
-  <si>
-    <t>DE 18</t>
-  </si>
-  <si>
-    <t>DE 3</t>
-  </si>
-  <si>
-    <t>DA 3</t>
-  </si>
-  <si>
-    <t>DE 7</t>
-  </si>
-  <si>
-    <t>DE 20</t>
-  </si>
-  <si>
-    <t>DE 13</t>
-  </si>
-  <si>
-    <t>DE 2</t>
-  </si>
-  <si>
-    <t>DA 2</t>
-  </si>
-  <si>
-    <t>DE 19</t>
-  </si>
-  <si>
-    <t>DE 23</t>
-  </si>
-  <si>
-    <t>DE 21</t>
-  </si>
-  <si>
-    <t>DE 11</t>
-  </si>
-  <si>
-    <t>DA 9</t>
-  </si>
-  <si>
-    <t>Los Angelos Campus Ministry</t>
+    <t>DE 25</t>
+  </si>
+  <si>
+    <t>LOS ANGELES CAMPUS MINISTRY</t>
   </si>
   <si>
     <t>NEW</t>
   </si>
   <si>
-    <t>Virtual campus Ministry</t>
-  </si>
-  <si>
-    <t>Graduated</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Seattle Campus Ministry</t>
-  </si>
-  <si>
-    <t>Virtual campus Ministry(VCM)</t>
-  </si>
-  <si>
-    <t>George Mason University (GMU) Campus Ministry</t>
-  </si>
-  <si>
-    <t>Boston Campus Ministry</t>
-  </si>
-  <si>
-    <t>Minnesota Campus Ministry</t>
-  </si>
-  <si>
-    <t>Graduated from Campus Ministry</t>
-  </si>
-  <si>
-    <t>University of Maryland (UMD) Campus Ministry</t>
-  </si>
-  <si>
-    <t>DC campus Ministry</t>
-  </si>
-  <si>
-    <t>Virginia Tech Campus Ministry(VTech)</t>
-  </si>
-  <si>
-    <t>Denver Campus Ministry</t>
-  </si>
-  <si>
-    <t>Nashville Campus Ministry</t>
-  </si>
-  <si>
-    <t>VA Campus Ministry</t>
-  </si>
-  <si>
-    <t>Nova Campus Ministry</t>
-  </si>
-  <si>
-    <t>George Washington University Campus Ministry</t>
-  </si>
-  <si>
-    <t>San Jose Campus Ministry</t>
-  </si>
-  <si>
-    <t>Seattle Coordinator</t>
+    <t>VIRTUAL CAMPUS MINISTRY (VCM)</t>
+  </si>
+  <si>
+    <t>GRADUATED FROM CAMPUS MINISTRY</t>
+  </si>
+  <si>
+    <t>ATLANTA CAMPUS MINISTRY</t>
+  </si>
+  <si>
+    <t>SEATTLE CAMPUS MINISTRY</t>
+  </si>
+  <si>
+    <t>GEORGE MASON UNIVERSITY CAMPUS MINISTRY</t>
+  </si>
+  <si>
+    <t>BOSTON CAMPUS MINISTRY</t>
+  </si>
+  <si>
+    <t>MINNESOTA CAMPUS MINISTRY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF MARYLAND (UMD) CAMPUS MINISTRY</t>
+  </si>
+  <si>
+    <t>GEORGE WASHINGTON UNIVERSITY CAMPUS MINISTRY</t>
+  </si>
+  <si>
+    <t>VIRGINIA TECH CAMPUS MINISTRY</t>
+  </si>
+  <si>
+    <t>DENVER CAMPUS MINISTRY</t>
+  </si>
+  <si>
+    <t>NASHVILLE CAMPUS MINISTRY</t>
+  </si>
+  <si>
+    <t>NOVA CAMPUS MINISTRY</t>
+  </si>
+  <si>
+    <t>SAN JOSE CAMPUS MINISTRY</t>
   </si>
   <si>
     <t>George Mason University (GMU) Campus ministry</t>
   </si>
   <si>
-    <t>Virtual Campus Ministry</t>
-  </si>
-  <si>
-    <t>VCM Coordinator</t>
+    <t>Graduate</t>
   </si>
 </sst>
 </file>
@@ -3047,7 +3053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J316"/>
+  <dimension ref="A1:J315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3090,19 +3096,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D2" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="E2" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="G2" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3110,19 +3116,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D3" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="E3" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="G3" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3130,19 +3136,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D4" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="E4" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="G4" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3150,19 +3156,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D5" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="E5" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="G5" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3170,19 +3176,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D6" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="E6" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="G6" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3190,19 +3196,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="E7" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="G7" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3210,19 +3216,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D8" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="E8" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="G8" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3230,19 +3236,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D9" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="E9" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="G9" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3250,19 +3256,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D10" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="E10" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="G10" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3270,19 +3276,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D11" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="E11" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="G11" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3290,19 +3296,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D12" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="E12" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="G12" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3310,19 +3316,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D13" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="E13" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G13" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3330,19 +3336,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="D14" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="E14" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G14" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3353,16 +3359,16 @@
         <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D15" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E15" t="s">
         <v>847</v>
       </c>
       <c r="G15" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3370,19 +3376,19 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C16" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D16" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="E16" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G16" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3390,19 +3396,19 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C17" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D17" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="E17" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="G17" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3410,19 +3416,19 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C18" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D18" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="E18" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="G18" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3430,19 +3436,19 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C19" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D19" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="E19" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="G19" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3450,19 +3456,19 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C20" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D20" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="E20" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="G20" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3470,19 +3476,19 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C21" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D21" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="E21" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="G21" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3490,19 +3496,19 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D22" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="E22" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G22" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3510,19 +3516,19 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D23" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="E23" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="G23" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3530,19 +3536,19 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D24" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="E24" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="G24" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3550,19 +3556,19 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D25" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="E25" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="G25" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3570,19 +3576,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C26" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D26" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E26" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G26" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3590,19 +3596,19 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C27" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D27" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
       <c r="E27" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="G27" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3610,19 +3616,19 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C28" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D28" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="E28" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="G28" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3630,19 +3636,19 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D29" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E29" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="G29" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3650,19 +3656,19 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D30" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="E30" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="G30" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3670,19 +3676,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D31" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="E31" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="G31" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3690,19 +3696,19 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C32" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D32" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="E32" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="G32" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3710,19 +3716,19 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C33" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D33" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="E33" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="G33" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3730,19 +3736,19 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D34" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="E34" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="G34" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3750,19 +3756,19 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D35" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="E35" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="G35" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3770,19 +3776,19 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D36" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="E36" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="G36" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3790,19 +3796,19 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C37" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D37" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="E37" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="G37" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3810,19 +3816,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C38" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D38" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="E38" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
       <c r="G38" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3830,19 +3836,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D39" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="E39" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="G39" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3850,19 +3856,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C40" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D40" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="E40" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
       <c r="G40" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3870,19 +3876,19 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C41" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D41" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="E41" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="G41" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3890,19 +3896,19 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D42" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="E42" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="G42" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3910,19 +3916,19 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D43" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G43" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3933,16 +3939,16 @@
         <v>197</v>
       </c>
       <c r="C44" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D44" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="E44" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="G44" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3950,19 +3956,19 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C45" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D45" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="E45" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="G45" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3970,19 +3976,19 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C46" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D46" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="E46" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="G46" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3990,19 +3996,19 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C47" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D47" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="E47" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G47" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4010,19 +4016,19 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D48" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="E48" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="G48" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4030,19 +4036,19 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C49" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D49" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="E49" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
       <c r="G49" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4050,19 +4056,19 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C50" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D50" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="E50" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="G50" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4070,19 +4076,19 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D51" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="E51" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="G51" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4090,19 +4096,19 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="D52" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="E52" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="G52" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4110,19 +4116,19 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C53" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D53" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="E53" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
       <c r="G53" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4130,19 +4136,19 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C54" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="E54" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="G54" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4150,19 +4156,19 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C55" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D55" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="E55" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="G55" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4170,19 +4176,19 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C56" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D56" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="E56" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="G56" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4193,16 +4199,16 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D57" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="E57" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="G57" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4210,19 +4216,19 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C58" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D58" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="E58" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="G58" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4230,19 +4236,19 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C59" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="D59" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="E59" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="G59" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4250,19 +4256,19 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C60" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D60" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="E60" t="s">
-        <v>837</v>
+        <v>863</v>
       </c>
       <c r="G60" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4270,19 +4276,19 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C61" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D61" t="s">
-        <v>580</v>
+        <v>629</v>
       </c>
       <c r="E61" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="G61" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4290,19 +4296,19 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C62" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D62" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="E62" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="G62" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -4310,19 +4316,19 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C63" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D63" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="E63" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="G63" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4330,19 +4336,19 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C64" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D64" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E64" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="G64" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -4350,19 +4356,19 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C65" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D65" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="E65" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="G65" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4370,19 +4376,19 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C66" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D66" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="E66" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="G66" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4390,19 +4396,19 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C67" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D67" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="E67" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="G67" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4410,19 +4416,19 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C68" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D68" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="E68" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="G68" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4430,19 +4436,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D69" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="E69" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G69" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4450,19 +4456,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C70" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D70" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="E70" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
       <c r="G70" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4470,19 +4476,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C71" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D71" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="E71" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="G71" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4490,19 +4496,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C72" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D72" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="E72" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G72" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4510,19 +4516,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C73" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D73" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="E73" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="G73" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4533,16 +4539,16 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D74" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="E74" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G74" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4550,19 +4556,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C75" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D75" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="E75" t="s">
         <v>846</v>
       </c>
       <c r="G75" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4570,19 +4576,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C76" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D76" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="E76" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G76" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4590,19 +4596,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C77" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="D77" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="E77" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G77" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4610,19 +4616,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C78" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D78" t="s">
-        <v>585</v>
+        <v>645</v>
       </c>
       <c r="E78" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G78" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4630,19 +4636,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C79" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="D79" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E79" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="G79" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4650,19 +4656,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C80" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D80" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="E80" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="G80" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4670,19 +4676,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C81" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="D81" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="E81" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="G81" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4690,19 +4696,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C82" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D82" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="E82" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="G82" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4710,19 +4716,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C83" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D83" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="E83" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="G83" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4730,19 +4736,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C84" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D84" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="E84" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="G84" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4750,19 +4756,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C85" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="D85" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="E85" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="G85" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4770,19 +4776,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C86" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="D86" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="E86" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="G86" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4790,19 +4796,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C87" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D87" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="E87" t="s">
-        <v>850</v>
+        <v>871</v>
       </c>
       <c r="G87" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4810,19 +4816,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C88" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D88" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="E88" t="s">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="G88" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4833,16 +4839,16 @@
         <v>225</v>
       </c>
       <c r="C89" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D89" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="E89" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
       <c r="G89" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4850,19 +4856,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C90" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D90" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="E90" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="G90" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4870,19 +4876,19 @@
         <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C91" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D91" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="E91" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="G91" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4890,19 +4896,19 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C92" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="D92" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="E92" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
       <c r="G92" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4910,19 +4916,19 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="D93" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="E93" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G93" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4930,19 +4936,19 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D94" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="E94" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G94" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4950,19 +4956,19 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C95" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D95" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="E95" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G95" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4970,19 +4976,19 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C96" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D96" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="E96" t="s">
-        <v>842</v>
+        <v>864</v>
       </c>
       <c r="G96" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4990,19 +4996,19 @@
         <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C97" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D97" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="E97" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G97" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5013,16 +5019,16 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D98" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="E98" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G98" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5030,19 +5036,19 @@
         <v>86</v>
       </c>
       <c r="B99" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C99" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D99" t="s">
-        <v>599</v>
+        <v>663</v>
       </c>
       <c r="E99" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="G99" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5050,19 +5056,19 @@
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C100" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D100" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="E100" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="G100" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5070,19 +5076,19 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C101" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D101" t="s">
-        <v>603</v>
+        <v>664</v>
       </c>
       <c r="E101" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="G101" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5090,19 +5096,19 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D102" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="E102" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="G102" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5110,19 +5116,19 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C103" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D103" t="s">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="E103" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="G103" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5130,19 +5136,19 @@
         <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C104" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="D104" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="E104" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="G104" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5150,19 +5156,19 @@
         <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C105" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D105" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="E105" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G105" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5170,19 +5176,19 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C106" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="D106" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="E106" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="G106" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5190,19 +5196,19 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C107" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D107" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="E107" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G107" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5210,19 +5216,19 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C108" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D108" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="E108" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="G108" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5230,19 +5236,19 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C109" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D109" t="s">
-        <v>623</v>
+        <v>671</v>
       </c>
       <c r="E109" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
       <c r="G109" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5250,19 +5256,19 @@
         <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C110" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D110" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="E110" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="G110" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5270,19 +5276,19 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C111" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="D111" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="E111" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
       <c r="G111" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5290,19 +5296,19 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C112" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="D112" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="E112" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="G112" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5310,19 +5316,19 @@
         <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C113" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="D113" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="E113" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="G113" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -5330,19 +5336,19 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C114" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D114" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="E114" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="G114" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -5350,19 +5356,19 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C115" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D115" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="E115" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G115" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5370,16 +5376,19 @@
         <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>319</v>
+        <v>324</v>
+      </c>
+      <c r="C116" t="s">
+        <v>561</v>
       </c>
       <c r="D116" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="E116" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="G116" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5389,14 +5398,17 @@
       <c r="B117" t="s">
         <v>226</v>
       </c>
+      <c r="C117" t="s">
+        <v>561</v>
+      </c>
       <c r="D117" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="E117" t="s">
-        <v>844</v>
+        <v>873</v>
       </c>
       <c r="G117" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5404,16 +5416,19 @@
         <v>112</v>
       </c>
       <c r="B118" t="s">
-        <v>314</v>
+        <v>319</v>
+      </c>
+      <c r="C118" t="s">
+        <v>561</v>
       </c>
       <c r="D118" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="E118" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="G118" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5421,16 +5436,19 @@
         <v>113</v>
       </c>
       <c r="B119" t="s">
-        <v>314</v>
+        <v>319</v>
+      </c>
+      <c r="C119" t="s">
+        <v>561</v>
       </c>
       <c r="D119" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="E119" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="G119" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5438,16 +5456,19 @@
         <v>114</v>
       </c>
       <c r="B120" t="s">
-        <v>323</v>
+        <v>328</v>
+      </c>
+      <c r="C120" t="s">
+        <v>561</v>
       </c>
       <c r="D120" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="E120" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="G120" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5455,16 +5476,19 @@
         <v>115</v>
       </c>
       <c r="B121" t="s">
-        <v>324</v>
+        <v>329</v>
+      </c>
+      <c r="C121" t="s">
+        <v>561</v>
       </c>
       <c r="D121" t="s">
-        <v>589</v>
+        <v>683</v>
       </c>
       <c r="E121" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G121" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5472,16 +5496,19 @@
         <v>116</v>
       </c>
       <c r="B122" t="s">
-        <v>325</v>
+        <v>330</v>
+      </c>
+      <c r="C122" t="s">
+        <v>561</v>
       </c>
       <c r="D122" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="E122" t="s">
-        <v>846</v>
+        <v>871</v>
       </c>
       <c r="G122" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5489,16 +5516,19 @@
         <v>117</v>
       </c>
       <c r="B123" t="s">
-        <v>326</v>
+        <v>331</v>
+      </c>
+      <c r="C123" t="s">
+        <v>561</v>
       </c>
       <c r="D123" t="s">
-        <v>669</v>
+        <v>604</v>
       </c>
       <c r="E123" t="s">
-        <v>850</v>
+        <v>871</v>
       </c>
       <c r="G123" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5506,16 +5536,19 @@
         <v>118</v>
       </c>
       <c r="B124" t="s">
-        <v>327</v>
+        <v>332</v>
+      </c>
+      <c r="C124" t="s">
+        <v>561</v>
       </c>
       <c r="D124" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="E124" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G124" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5523,16 +5556,19 @@
         <v>119</v>
       </c>
       <c r="B125" t="s">
-        <v>328</v>
+        <v>333</v>
+      </c>
+      <c r="C125" t="s">
+        <v>561</v>
       </c>
       <c r="D125" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="E125" t="s">
-        <v>843</v>
+        <v>874</v>
       </c>
       <c r="G125" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5540,16 +5576,19 @@
         <v>120</v>
       </c>
       <c r="B126" t="s">
-        <v>329</v>
+        <v>334</v>
+      </c>
+      <c r="C126" t="s">
+        <v>561</v>
       </c>
       <c r="D126" t="s">
-        <v>672</v>
+        <v>599</v>
       </c>
       <c r="E126" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="G126" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5557,16 +5596,19 @@
         <v>121</v>
       </c>
       <c r="B127" t="s">
-        <v>329</v>
+        <v>334</v>
+      </c>
+      <c r="C127" t="s">
+        <v>561</v>
       </c>
       <c r="D127" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="E127" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="G127" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5574,16 +5616,19 @@
         <v>35</v>
       </c>
       <c r="B128" t="s">
-        <v>330</v>
+        <v>335</v>
+      </c>
+      <c r="C128" t="s">
+        <v>561</v>
       </c>
       <c r="D128" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="E128" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G128" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5591,16 +5636,19 @@
         <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>331</v>
+        <v>336</v>
+      </c>
+      <c r="C129" t="s">
+        <v>561</v>
       </c>
       <c r="D129" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="E129" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="G129" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5608,16 +5656,19 @@
         <v>122</v>
       </c>
       <c r="B130" t="s">
-        <v>332</v>
+        <v>337</v>
+      </c>
+      <c r="C130" t="s">
+        <v>561</v>
       </c>
       <c r="D130" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="E130" t="s">
-        <v>837</v>
+        <v>873</v>
       </c>
       <c r="G130" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5625,16 +5676,19 @@
         <v>123</v>
       </c>
       <c r="B131" t="s">
-        <v>333</v>
+        <v>338</v>
+      </c>
+      <c r="C131" t="s">
+        <v>561</v>
       </c>
       <c r="D131" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="E131" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="G131" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5642,16 +5696,19 @@
         <v>124</v>
       </c>
       <c r="B132" t="s">
-        <v>334</v>
+        <v>339</v>
+      </c>
+      <c r="C132" t="s">
+        <v>561</v>
       </c>
       <c r="D132" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="E132" t="s">
-        <v>837</v>
+        <v>858</v>
       </c>
       <c r="G132" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5659,16 +5716,19 @@
         <v>125</v>
       </c>
       <c r="B133" t="s">
-        <v>335</v>
+        <v>340</v>
+      </c>
+      <c r="C133" t="s">
+        <v>561</v>
       </c>
       <c r="D133" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="E133" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G133" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5676,16 +5736,19 @@
         <v>126</v>
       </c>
       <c r="B134" t="s">
-        <v>336</v>
+        <v>341</v>
+      </c>
+      <c r="C134" t="s">
+        <v>561</v>
       </c>
       <c r="D134" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="E134" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="G134" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5693,16 +5756,19 @@
         <v>127</v>
       </c>
       <c r="B135" t="s">
-        <v>337</v>
+        <v>342</v>
+      </c>
+      <c r="C135" t="s">
+        <v>561</v>
       </c>
       <c r="D135" t="s">
-        <v>681</v>
+        <v>621</v>
       </c>
       <c r="E135" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
       <c r="G135" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5710,16 +5776,19 @@
         <v>128</v>
       </c>
       <c r="B136" t="s">
-        <v>338</v>
+        <v>343</v>
+      </c>
+      <c r="C136" t="s">
+        <v>561</v>
       </c>
       <c r="D136" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="E136" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G136" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5727,16 +5796,19 @@
         <v>129</v>
       </c>
       <c r="B137" t="s">
-        <v>339</v>
+        <v>344</v>
+      </c>
+      <c r="C137" t="s">
+        <v>561</v>
       </c>
       <c r="D137" t="s">
-        <v>683</v>
+        <v>592</v>
       </c>
       <c r="E137" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="G137" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5744,2240 +5816,2636 @@
         <v>130</v>
       </c>
       <c r="B138" t="s">
-        <v>339</v>
+        <v>344</v>
+      </c>
+      <c r="C138" t="s">
+        <v>561</v>
       </c>
       <c r="D138" t="s">
-        <v>570</v>
+        <v>696</v>
       </c>
       <c r="E138" t="s">
-        <v>843</v>
+        <v>874</v>
       </c>
       <c r="G138" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B139" t="s">
-        <v>339</v>
+        <v>250</v>
+      </c>
+      <c r="C139" t="s">
+        <v>561</v>
       </c>
       <c r="D139" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="E139" t="s">
         <v>867</v>
       </c>
       <c r="G139" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B140" t="s">
-        <v>245</v>
+        <v>250</v>
+      </c>
+      <c r="C140" t="s">
+        <v>561</v>
       </c>
       <c r="D140" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="E140" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="G140" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B141" t="s">
-        <v>245</v>
+        <v>345</v>
+      </c>
+      <c r="C141" t="s">
+        <v>561</v>
       </c>
       <c r="D141" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="E141" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="G141" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B142" t="s">
-        <v>340</v>
+        <v>312</v>
+      </c>
+      <c r="C142" t="s">
+        <v>561</v>
       </c>
       <c r="D142" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="E142" t="s">
-        <v>836</v>
+        <v>869</v>
       </c>
       <c r="G142" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B143" t="s">
-        <v>307</v>
+        <v>346</v>
+      </c>
+      <c r="C143" t="s">
+        <v>561</v>
       </c>
       <c r="D143" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="E143" t="s">
-        <v>842</v>
+        <v>871</v>
       </c>
       <c r="G143" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B144" t="s">
-        <v>341</v>
+        <v>346</v>
+      </c>
+      <c r="C144" t="s">
+        <v>561</v>
       </c>
       <c r="D144" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="E144" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="G144" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B145" t="s">
-        <v>341</v>
+        <v>347</v>
+      </c>
+      <c r="C145" t="s">
+        <v>561</v>
       </c>
       <c r="D145" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="E145" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="G145" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B146" t="s">
-        <v>342</v>
+        <v>206</v>
+      </c>
+      <c r="C146" t="s">
+        <v>561</v>
       </c>
       <c r="D146" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="E146" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="G146" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="B147" t="s">
         <v>206</v>
       </c>
+      <c r="C147" t="s">
+        <v>561</v>
+      </c>
       <c r="D147" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="E147" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="G147" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>348</v>
+      </c>
+      <c r="C148" t="s">
+        <v>561</v>
       </c>
       <c r="D148" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="E148" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="G148" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>343</v>
+        <v>349</v>
+      </c>
+      <c r="C149" t="s">
+        <v>561</v>
       </c>
       <c r="D149" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="E149" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="G149" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B150" t="s">
-        <v>344</v>
+        <v>350</v>
+      </c>
+      <c r="C150" t="s">
+        <v>561</v>
       </c>
       <c r="D150" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="E150" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="G150" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="B151" t="s">
-        <v>345</v>
+        <v>351</v>
+      </c>
+      <c r="C151" t="s">
+        <v>561</v>
       </c>
       <c r="D151" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="E151" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="G151" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>346</v>
+        <v>352</v>
+      </c>
+      <c r="C152" t="s">
+        <v>561</v>
       </c>
       <c r="D152" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="E152" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="G152" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B153" t="s">
-        <v>347</v>
+        <v>353</v>
+      </c>
+      <c r="C153" t="s">
+        <v>561</v>
       </c>
       <c r="D153" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="E153" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="G153" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B154" t="s">
-        <v>348</v>
+        <v>353</v>
+      </c>
+      <c r="C154" t="s">
+        <v>561</v>
       </c>
       <c r="D154" t="s">
-        <v>699</v>
+        <v>581</v>
       </c>
       <c r="E154" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="G154" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="B155" t="s">
-        <v>348</v>
+        <v>98</v>
+      </c>
+      <c r="C155" t="s">
+        <v>561</v>
       </c>
       <c r="D155" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="E155" t="s">
         <v>863</v>
       </c>
       <c r="G155" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B156" t="s">
-        <v>98</v>
+        <v>354</v>
+      </c>
+      <c r="C156" t="s">
+        <v>561</v>
       </c>
       <c r="D156" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="E156" t="s">
-        <v>855</v>
+        <v>872</v>
       </c>
       <c r="G156" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B157" t="s">
-        <v>349</v>
+        <v>355</v>
+      </c>
+      <c r="C157" t="s">
+        <v>561</v>
       </c>
       <c r="D157" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="E157" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="G157" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B158" t="s">
-        <v>350</v>
+        <v>356</v>
+      </c>
+      <c r="C158" t="s">
+        <v>561</v>
       </c>
       <c r="D158" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E158" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="G158" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B159" t="s">
-        <v>351</v>
+        <v>357</v>
+      </c>
+      <c r="C159" t="s">
+        <v>561</v>
       </c>
       <c r="D159" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="E159" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
       <c r="G159" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B160" t="s">
-        <v>352</v>
+        <v>358</v>
+      </c>
+      <c r="C160" t="s">
+        <v>561</v>
       </c>
       <c r="D160" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="E160" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="G160" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B161" t="s">
-        <v>353</v>
+        <v>359</v>
+      </c>
+      <c r="C161" t="s">
+        <v>561</v>
       </c>
       <c r="D161" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="E161" t="s">
-        <v>847</v>
+        <v>874</v>
       </c>
       <c r="G161" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="B162" t="s">
-        <v>354</v>
+        <v>308</v>
+      </c>
+      <c r="C162" t="s">
+        <v>561</v>
       </c>
       <c r="D162" t="s">
-        <v>707</v>
+        <v>606</v>
       </c>
       <c r="E162" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="G162" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="B163" t="s">
-        <v>303</v>
+        <v>308</v>
+      </c>
+      <c r="C163" t="s">
+        <v>561</v>
       </c>
       <c r="D163" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="E163" t="s">
-        <v>847</v>
+        <v>869</v>
       </c>
       <c r="G163" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B164" t="s">
-        <v>303</v>
+        <v>360</v>
+      </c>
+      <c r="C164" t="s">
+        <v>561</v>
       </c>
       <c r="D164" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E164" t="s">
         <v>863</v>
       </c>
       <c r="G164" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B165" t="s">
-        <v>355</v>
+        <v>361</v>
+      </c>
+      <c r="C165" t="s">
+        <v>561</v>
       </c>
       <c r="D165" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="E165" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="G165" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="B166" t="s">
-        <v>356</v>
+        <v>362</v>
+      </c>
+      <c r="C166" t="s">
+        <v>561</v>
       </c>
       <c r="D166" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="E166" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G166" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="B167" t="s">
-        <v>357</v>
+        <v>362</v>
+      </c>
+      <c r="C167" t="s">
+        <v>561</v>
       </c>
       <c r="D167" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="E167" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="G167" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B168" t="s">
-        <v>357</v>
+        <v>263</v>
+      </c>
+      <c r="C168" t="s">
+        <v>561</v>
       </c>
       <c r="D168" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="E168" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="G168" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B169" t="s">
-        <v>258</v>
+        <v>363</v>
+      </c>
+      <c r="C169" t="s">
+        <v>561</v>
       </c>
       <c r="D169" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="E169" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
       <c r="G169" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B170" t="s">
-        <v>358</v>
+        <v>364</v>
+      </c>
+      <c r="C170" t="s">
+        <v>561</v>
       </c>
       <c r="D170" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="E170" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="G170" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B171" t="s">
-        <v>359</v>
+        <v>260</v>
+      </c>
+      <c r="C171" t="s">
+        <v>561</v>
       </c>
       <c r="D171" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="E171" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G171" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B172" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="C172" t="s">
+        <v>561</v>
       </c>
       <c r="D172" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="E172" t="s">
-        <v>837</v>
+        <v>870</v>
       </c>
       <c r="G172" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B173" t="s">
-        <v>251</v>
+        <v>256</v>
+      </c>
+      <c r="C173" t="s">
+        <v>561</v>
       </c>
       <c r="D173" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="E173" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="G173" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B174" t="s">
-        <v>251</v>
+        <v>256</v>
+      </c>
+      <c r="C174" t="s">
+        <v>561</v>
       </c>
       <c r="D174" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="E174" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="G174" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B175" t="s">
-        <v>251</v>
+        <v>256</v>
+      </c>
+      <c r="C175" t="s">
+        <v>561</v>
       </c>
       <c r="D175" t="s">
-        <v>696</v>
+        <v>642</v>
       </c>
       <c r="E175" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="G175" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B176" t="s">
-        <v>251</v>
+        <v>365</v>
+      </c>
+      <c r="C176" t="s">
+        <v>561</v>
       </c>
       <c r="D176" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="E176" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="G176" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B177" t="s">
-        <v>360</v>
+        <v>365</v>
+      </c>
+      <c r="C177" t="s">
+        <v>561</v>
       </c>
       <c r="D177" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="E177" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="G177" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="B178" t="s">
-        <v>360</v>
+        <v>366</v>
+      </c>
+      <c r="C178" t="s">
+        <v>561</v>
       </c>
       <c r="D178" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="E178" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="G178" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="B179" t="s">
-        <v>361</v>
+        <v>269</v>
+      </c>
+      <c r="C179" t="s">
+        <v>561</v>
       </c>
       <c r="D179" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E179" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="G179" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B180" t="s">
-        <v>264</v>
+        <v>367</v>
+      </c>
+      <c r="C180" t="s">
+        <v>561</v>
       </c>
       <c r="D180" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E180" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G180" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B181" t="s">
-        <v>362</v>
+        <v>368</v>
+      </c>
+      <c r="C181" t="s">
+        <v>561</v>
       </c>
       <c r="D181" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="E181" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G181" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B182" t="s">
-        <v>363</v>
+        <v>369</v>
+      </c>
+      <c r="C182" t="s">
+        <v>561</v>
       </c>
       <c r="D182" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="E182" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="G182" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B183" t="s">
-        <v>364</v>
+        <v>369</v>
+      </c>
+      <c r="C183" t="s">
+        <v>561</v>
       </c>
       <c r="D183" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="E183" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="G183" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="B184" t="s">
-        <v>364</v>
+        <v>369</v>
+      </c>
+      <c r="C184" t="s">
+        <v>561</v>
       </c>
       <c r="D184" t="s">
-        <v>590</v>
+        <v>733</v>
       </c>
       <c r="E184" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G184" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="B185" t="s">
-        <v>364</v>
+        <v>370</v>
+      </c>
+      <c r="C185" t="s">
+        <v>561</v>
       </c>
       <c r="D185" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="E185" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="G185" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="B186" t="s">
-        <v>365</v>
+        <v>116</v>
+      </c>
+      <c r="C186" t="s">
+        <v>561</v>
       </c>
       <c r="D186" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="E186" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="G186" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="B187" t="s">
         <v>116</v>
       </c>
+      <c r="C187" t="s">
+        <v>561</v>
+      </c>
       <c r="D187" t="s">
-        <v>692</v>
+        <v>594</v>
       </c>
       <c r="E187" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G187" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B188" t="s">
         <v>116</v>
       </c>
+      <c r="C188" t="s">
+        <v>561</v>
+      </c>
       <c r="D188" t="s">
-        <v>617</v>
+        <v>736</v>
       </c>
       <c r="E188" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="G188" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B189" t="s">
-        <v>116</v>
+        <v>371</v>
+      </c>
+      <c r="C189" t="s">
+        <v>561</v>
       </c>
       <c r="D189" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="E189" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="G189" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B190" t="s">
-        <v>116</v>
+        <v>371</v>
+      </c>
+      <c r="C190" t="s">
+        <v>561</v>
       </c>
       <c r="D190" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="E190" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="G190" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B191" t="s">
-        <v>366</v>
+        <v>372</v>
+      </c>
+      <c r="C191" t="s">
+        <v>561</v>
       </c>
       <c r="D191" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="E191" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G191" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="B192" t="s">
-        <v>366</v>
+        <v>373</v>
+      </c>
+      <c r="C192" t="s">
+        <v>561</v>
       </c>
       <c r="D192" t="s">
-        <v>731</v>
+        <v>635</v>
       </c>
       <c r="E192" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="G192" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B193" t="s">
-        <v>367</v>
+        <v>374</v>
+      </c>
+      <c r="C193" t="s">
+        <v>561</v>
       </c>
       <c r="D193" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="E193" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="G193" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B194" t="s">
-        <v>368</v>
+        <v>375</v>
+      </c>
+      <c r="C194" t="s">
+        <v>561</v>
       </c>
       <c r="D194" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="E194" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="G194" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="B195" t="s">
-        <v>368</v>
+        <v>376</v>
+      </c>
+      <c r="C195" t="s">
+        <v>561</v>
       </c>
       <c r="D195" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="E195" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="G195" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B196" t="s">
-        <v>369</v>
+        <v>377</v>
+      </c>
+      <c r="C196" t="s">
+        <v>561</v>
       </c>
       <c r="D196" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="E196" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="G196" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B197" t="s">
-        <v>370</v>
+        <v>378</v>
+      </c>
+      <c r="C197" t="s">
+        <v>561</v>
       </c>
       <c r="D197" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="E197" t="s">
-        <v>842</v>
+        <v>873</v>
       </c>
       <c r="G197" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="B198" t="s">
-        <v>371</v>
+        <v>379</v>
+      </c>
+      <c r="C198" t="s">
+        <v>561</v>
       </c>
       <c r="D198" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="E198" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="G198" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B199" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="C199" t="s">
+        <v>561</v>
       </c>
       <c r="D199" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="E199" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="G199" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="B200" t="s">
-        <v>373</v>
+        <v>380</v>
+      </c>
+      <c r="C200" t="s">
+        <v>561</v>
       </c>
       <c r="D200" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="E200" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="G200" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="B201" t="s">
-        <v>374</v>
+        <v>381</v>
+      </c>
+      <c r="C201" t="s">
+        <v>561</v>
       </c>
       <c r="D201" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="E201" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="G201" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="B202" t="s">
-        <v>375</v>
+        <v>382</v>
+      </c>
+      <c r="C202" t="s">
+        <v>561</v>
       </c>
       <c r="D202" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="E202" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="G202" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="B203" t="s">
-        <v>375</v>
+        <v>383</v>
+      </c>
+      <c r="C203" t="s">
+        <v>561</v>
       </c>
       <c r="D203" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="E203" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="G203" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B204" t="s">
-        <v>376</v>
+        <v>383</v>
+      </c>
+      <c r="C204" t="s">
+        <v>561</v>
       </c>
       <c r="D204" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E204" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G204" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="B205" t="s">
-        <v>377</v>
+        <v>384</v>
+      </c>
+      <c r="C205" t="s">
+        <v>561</v>
       </c>
       <c r="D205" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="E205" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="G205" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B206" t="s">
-        <v>378</v>
+        <v>274</v>
+      </c>
+      <c r="C206" t="s">
+        <v>561</v>
       </c>
       <c r="D206" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="E206" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="G206" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B207" t="s">
-        <v>378</v>
+        <v>274</v>
+      </c>
+      <c r="C207" t="s">
+        <v>561</v>
       </c>
       <c r="D207" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="E207" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="G207" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B208" t="s">
-        <v>379</v>
+        <v>274</v>
+      </c>
+      <c r="C208" t="s">
+        <v>561</v>
       </c>
       <c r="D208" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="E208" t="s">
-        <v>844</v>
+        <v>875</v>
       </c>
       <c r="G208" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="B209" t="s">
-        <v>269</v>
+        <v>305</v>
+      </c>
+      <c r="C209" t="s">
+        <v>561</v>
       </c>
       <c r="D209" t="s">
-        <v>746</v>
+        <v>709</v>
       </c>
       <c r="E209" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G209" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B210" t="s">
-        <v>269</v>
+        <v>305</v>
+      </c>
+      <c r="C210" t="s">
+        <v>561</v>
       </c>
       <c r="D210" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="E210" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="G210" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B211" t="s">
-        <v>269</v>
+        <v>305</v>
+      </c>
+      <c r="C211" t="s">
+        <v>561</v>
       </c>
       <c r="D211" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="E211" t="s">
-        <v>842</v>
+        <v>873</v>
       </c>
       <c r="G211" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="B212" t="s">
-        <v>300</v>
+        <v>385</v>
+      </c>
+      <c r="C212" t="s">
+        <v>561</v>
       </c>
       <c r="D212" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="E212" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="G212" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B213" t="s">
-        <v>300</v>
+        <v>386</v>
+      </c>
+      <c r="C213" t="s">
+        <v>561</v>
       </c>
       <c r="D213" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="E213" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="G213" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B214" t="s">
-        <v>300</v>
+        <v>387</v>
+      </c>
+      <c r="C214" t="s">
+        <v>561</v>
       </c>
       <c r="D214" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="E214" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="G214" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B215" t="s">
-        <v>380</v>
+        <v>387</v>
+      </c>
+      <c r="C215" t="s">
+        <v>561</v>
       </c>
       <c r="D215" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="E215" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="G215" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="B216" t="s">
-        <v>381</v>
+        <v>388</v>
+      </c>
+      <c r="C216" t="s">
+        <v>561</v>
       </c>
       <c r="D216" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="E216" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="G216" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="B217" t="s">
-        <v>382</v>
+        <v>276</v>
+      </c>
+      <c r="C217" t="s">
+        <v>561</v>
       </c>
       <c r="D217" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="E217" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G217" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>382</v>
+        <v>389</v>
+      </c>
+      <c r="C218" t="s">
+        <v>561</v>
       </c>
       <c r="D218" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="E218" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
       <c r="G218" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B219" t="s">
-        <v>383</v>
+        <v>389</v>
+      </c>
+      <c r="C219" t="s">
+        <v>561</v>
       </c>
       <c r="D219" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="E219" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="G219" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B220" t="s">
-        <v>271</v>
+        <v>390</v>
+      </c>
+      <c r="C220" t="s">
+        <v>561</v>
       </c>
       <c r="D220" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="E220" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="G220" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="B221" t="s">
-        <v>384</v>
+        <v>391</v>
+      </c>
+      <c r="C221" t="s">
+        <v>561</v>
       </c>
       <c r="D221" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="E221" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="G221" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="B222" t="s">
-        <v>384</v>
+        <v>392</v>
+      </c>
+      <c r="C222" t="s">
+        <v>561</v>
       </c>
       <c r="D222" t="s">
-        <v>758</v>
+        <v>644</v>
       </c>
       <c r="E222" t="s">
-        <v>841</v>
+        <v>867</v>
       </c>
       <c r="G222" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B223" t="s">
-        <v>385</v>
+        <v>393</v>
+      </c>
+      <c r="C223" t="s">
+        <v>561</v>
       </c>
       <c r="D223" t="s">
-        <v>630</v>
+        <v>768</v>
       </c>
       <c r="E223" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G223" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B224" t="s">
-        <v>386</v>
+        <v>394</v>
+      </c>
+      <c r="C224" t="s">
+        <v>561</v>
       </c>
       <c r="D224" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="E224" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="G224" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B225" t="s">
-        <v>387</v>
+        <v>395</v>
+      </c>
+      <c r="C225" t="s">
+        <v>561</v>
       </c>
       <c r="D225" t="s">
-        <v>760</v>
+        <v>623</v>
       </c>
       <c r="E225" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="G225" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B226" t="s">
-        <v>388</v>
+        <v>396</v>
+      </c>
+      <c r="C226" t="s">
+        <v>561</v>
       </c>
       <c r="D226" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="E226" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G226" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B227" t="s">
-        <v>389</v>
+        <v>397</v>
+      </c>
+      <c r="C227" t="s">
+        <v>561</v>
       </c>
       <c r="D227" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="E227" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G227" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B228" t="s">
-        <v>390</v>
+        <v>398</v>
+      </c>
+      <c r="C228" t="s">
+        <v>561</v>
       </c>
       <c r="D228" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="E228" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
       <c r="G228" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="B229" t="s">
-        <v>391</v>
+        <v>399</v>
+      </c>
+      <c r="C229" t="s">
+        <v>561</v>
       </c>
       <c r="D229" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="E229" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G229" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B230" t="s">
-        <v>392</v>
+        <v>118</v>
+      </c>
+      <c r="C230" t="s">
+        <v>561</v>
       </c>
       <c r="D230" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E230" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G230" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B231" t="s">
-        <v>393</v>
+        <v>400</v>
+      </c>
+      <c r="C231" t="s">
+        <v>561</v>
       </c>
       <c r="D231" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="E231" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="G231" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="B232" t="s">
-        <v>394</v>
+        <v>222</v>
+      </c>
+      <c r="C232" t="s">
+        <v>561</v>
       </c>
       <c r="D232" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="E232" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="G232" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>118</v>
+        <v>401</v>
+      </c>
+      <c r="C233" t="s">
+        <v>561</v>
       </c>
       <c r="D233" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="E233" t="s">
         <v>860</v>
       </c>
       <c r="G233" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B234" t="s">
-        <v>395</v>
+        <v>402</v>
+      </c>
+      <c r="C234" t="s">
+        <v>561</v>
       </c>
       <c r="D234" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="E234" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="G234" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="B235" t="s">
-        <v>222</v>
+        <v>403</v>
+      </c>
+      <c r="C235" t="s">
+        <v>561</v>
       </c>
       <c r="D235" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="E235" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="G235" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B236" t="s">
-        <v>396</v>
+        <v>404</v>
+      </c>
+      <c r="C236" t="s">
+        <v>561</v>
       </c>
       <c r="D236" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="E236" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
       <c r="G236" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B237" t="s">
-        <v>397</v>
+        <v>405</v>
+      </c>
+      <c r="C237" t="s">
+        <v>561</v>
       </c>
       <c r="D237" t="s">
-        <v>771</v>
+        <v>659</v>
       </c>
       <c r="E237" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="G237" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B238" t="s">
-        <v>398</v>
+        <v>405</v>
+      </c>
+      <c r="C238" t="s">
+        <v>561</v>
       </c>
       <c r="D238" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="E238" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="G238" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="B239" t="s">
-        <v>399</v>
+        <v>329</v>
+      </c>
+      <c r="C239" t="s">
+        <v>561</v>
       </c>
       <c r="D239" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="E239" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="G239" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B240" t="s">
-        <v>400</v>
+        <v>333</v>
+      </c>
+      <c r="C240" t="s">
+        <v>561</v>
       </c>
       <c r="D240" t="s">
-        <v>774</v>
+        <v>648</v>
       </c>
       <c r="E240" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="G240" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B241" t="s">
-        <v>400</v>
+        <v>406</v>
+      </c>
+      <c r="C241" t="s">
+        <v>561</v>
       </c>
       <c r="D241" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="E241" t="s">
-        <v>839</v>
+        <v>872</v>
       </c>
       <c r="G241" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B242" t="s">
-        <v>324</v>
+        <v>407</v>
+      </c>
+      <c r="C242" t="s">
+        <v>561</v>
       </c>
       <c r="D242" t="s">
-        <v>776</v>
+        <v>644</v>
       </c>
       <c r="E242" t="s">
-        <v>836</v>
+        <v>874</v>
       </c>
       <c r="G242" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B243" t="s">
-        <v>328</v>
+        <v>408</v>
+      </c>
+      <c r="C243" t="s">
+        <v>561</v>
       </c>
       <c r="D243" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="E243" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
       <c r="G243" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="B244" t="s">
-        <v>401</v>
+        <v>282</v>
+      </c>
+      <c r="C244" t="s">
+        <v>561</v>
       </c>
       <c r="D244" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="E244" t="s">
-        <v>848</v>
+        <v>874</v>
       </c>
       <c r="G244" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="B245" t="s">
-        <v>402</v>
+        <v>344</v>
+      </c>
+      <c r="C245" t="s">
+        <v>561</v>
       </c>
       <c r="D245" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="E245" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
       <c r="G245" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B246" t="s">
-        <v>403</v>
+        <v>409</v>
+      </c>
+      <c r="C246" t="s">
+        <v>561</v>
       </c>
       <c r="D246" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="E246" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="G246" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="B247" t="s">
-        <v>277</v>
+        <v>410</v>
+      </c>
+      <c r="C247" t="s">
+        <v>561</v>
       </c>
       <c r="D247" t="s">
-        <v>560</v>
+        <v>787</v>
       </c>
       <c r="E247" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="G247" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="B248" t="s">
-        <v>339</v>
+        <v>347</v>
+      </c>
+      <c r="C248" t="s">
+        <v>561</v>
       </c>
       <c r="D248" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="E248" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
       <c r="G248" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="B249" t="s">
-        <v>404</v>
+        <v>98</v>
+      </c>
+      <c r="C249" t="s">
+        <v>561</v>
       </c>
       <c r="D249" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="E249" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="G249" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="B250" t="s">
-        <v>405</v>
+        <v>98</v>
+      </c>
+      <c r="C250" t="s">
+        <v>561</v>
       </c>
       <c r="D250" t="s">
-        <v>783</v>
+        <v>743</v>
       </c>
       <c r="E250" t="s">
-        <v>838</v>
+        <v>866</v>
       </c>
       <c r="G250" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="B251" t="s">
-        <v>342</v>
+        <v>411</v>
+      </c>
+      <c r="C251" t="s">
+        <v>561</v>
       </c>
       <c r="D251" t="s">
-        <v>576</v>
+        <v>789</v>
       </c>
       <c r="E251" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="G251" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="B252" t="s">
-        <v>98</v>
+        <v>412</v>
+      </c>
+      <c r="C252" t="s">
+        <v>561</v>
       </c>
       <c r="D252" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="E252" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
       <c r="G252" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B253" t="s">
-        <v>98</v>
+        <v>355</v>
+      </c>
+      <c r="C253" t="s">
+        <v>561</v>
       </c>
       <c r="D253" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="E253" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="G253" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="B254" t="s">
-        <v>406</v>
+        <v>413</v>
+      </c>
+      <c r="C254" t="s">
+        <v>561</v>
       </c>
       <c r="D254" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="E254" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="G254" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B255" t="s">
-        <v>407</v>
+        <v>414</v>
+      </c>
+      <c r="C255" t="s">
+        <v>561</v>
       </c>
       <c r="D255" t="s">
-        <v>786</v>
+        <v>677</v>
       </c>
       <c r="E255" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="G255" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="B256" t="s">
-        <v>350</v>
+        <v>415</v>
+      </c>
+      <c r="C256" t="s">
+        <v>561</v>
       </c>
       <c r="D256" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="E256" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
       <c r="G256" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="B257" t="s">
-        <v>408</v>
+        <v>416</v>
+      </c>
+      <c r="C257" t="s">
+        <v>561</v>
       </c>
       <c r="D257" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E257" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
       <c r="G257" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B258" t="s">
-        <v>409</v>
+        <v>417</v>
+      </c>
+      <c r="C258" t="s">
+        <v>561</v>
       </c>
       <c r="D258" t="s">
-        <v>789</v>
+        <v>692</v>
       </c>
       <c r="E258" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="G258" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="B259" t="s">
-        <v>410</v>
+        <v>418</v>
+      </c>
+      <c r="C259" t="s">
+        <v>561</v>
       </c>
       <c r="D259" t="s">
-        <v>721</v>
+        <v>794</v>
       </c>
       <c r="E259" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="G259" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B260" t="s">
-        <v>411</v>
+        <v>248</v>
+      </c>
+      <c r="C260" t="s">
+        <v>561</v>
       </c>
       <c r="D260" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="E260" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="G260" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="B261" t="s">
-        <v>412</v>
+        <v>248</v>
+      </c>
+      <c r="C261" t="s">
+        <v>561</v>
       </c>
       <c r="D261" t="s">
-        <v>716</v>
+        <v>796</v>
       </c>
       <c r="E261" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
       <c r="G261" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B262" t="s">
-        <v>413</v>
+        <v>419</v>
+      </c>
+      <c r="C262" t="s">
+        <v>561</v>
       </c>
       <c r="D262" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E262" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="G262" t="s">
-        <v>870</v>
+        <v>891</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="B263" t="s">
-        <v>243</v>
+        <v>420</v>
+      </c>
+      <c r="C263" t="s">
+        <v>561</v>
       </c>
       <c r="D263" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="E263" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="G263" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="B264" t="s">
-        <v>243</v>
+        <v>421</v>
+      </c>
+      <c r="C264" t="s">
+        <v>561</v>
       </c>
       <c r="D264" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="E264" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G264" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B265" t="s">
-        <v>414</v>
+        <v>271</v>
+      </c>
+      <c r="C265" t="s">
+        <v>561</v>
       </c>
       <c r="D265" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="E265" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="G265" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="B266" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="C266" t="s">
+        <v>561</v>
       </c>
       <c r="D266" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E266" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
       <c r="G266" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B267" t="s">
-        <v>415</v>
+        <v>253</v>
+      </c>
+      <c r="C267" t="s">
+        <v>561</v>
       </c>
       <c r="D267" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="E267" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="G267" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="B268" t="s">
-        <v>416</v>
+        <v>422</v>
+      </c>
+      <c r="C268" t="s">
+        <v>561</v>
       </c>
       <c r="D268" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="E268" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="G268" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B269" t="s">
-        <v>266</v>
+        <v>306</v>
+      </c>
+      <c r="C269" t="s">
+        <v>561</v>
       </c>
       <c r="D269" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="E269" t="s">
-        <v>839</v>
+        <v>872</v>
       </c>
       <c r="G269" t="s">
         <v>877</v>
@@ -7985,861 +8453,922 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="B270" t="s">
-        <v>248</v>
+        <v>306</v>
+      </c>
+      <c r="C270" t="s">
+        <v>561</v>
       </c>
       <c r="D270" t="s">
-        <v>574</v>
+        <v>804</v>
       </c>
       <c r="E270" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G270" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B271" t="s">
-        <v>248</v>
+        <v>423</v>
+      </c>
+      <c r="C271" t="s">
+        <v>561</v>
       </c>
       <c r="D271" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="E271" t="s">
         <v>851</v>
       </c>
       <c r="G271" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B272" t="s">
-        <v>417</v>
+        <v>424</v>
+      </c>
+      <c r="C272" t="s">
+        <v>561</v>
       </c>
       <c r="D272" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="E272" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="G272" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="B273" t="s">
-        <v>301</v>
+        <v>425</v>
+      </c>
+      <c r="C273" t="s">
+        <v>561</v>
       </c>
       <c r="D273" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="E273" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="G273" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="B274" t="s">
-        <v>301</v>
+        <v>426</v>
+      </c>
+      <c r="C274" t="s">
+        <v>561</v>
       </c>
       <c r="D274" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="E274" t="s">
-        <v>852</v>
+        <v>874</v>
       </c>
       <c r="G274" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="B275" t="s">
-        <v>418</v>
+        <v>382</v>
+      </c>
+      <c r="C275" t="s">
+        <v>561</v>
       </c>
       <c r="D275" t="s">
-        <v>803</v>
+        <v>706</v>
       </c>
       <c r="E275" t="s">
         <v>853</v>
       </c>
       <c r="G275" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B276" t="s">
-        <v>419</v>
+        <v>274</v>
+      </c>
+      <c r="C276" t="s">
+        <v>561</v>
       </c>
       <c r="D276" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="E276" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="G276" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="B277" t="s">
-        <v>420</v>
+        <v>427</v>
+      </c>
+      <c r="C277" t="s">
+        <v>561</v>
       </c>
       <c r="D277" t="s">
-        <v>608</v>
+        <v>809</v>
       </c>
       <c r="E277" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="G277" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="B278" t="s">
-        <v>421</v>
+        <v>428</v>
+      </c>
+      <c r="C278" t="s">
+        <v>561</v>
       </c>
       <c r="D278" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="E278" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="G278" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="B279" t="s">
-        <v>377</v>
+        <v>429</v>
+      </c>
+      <c r="C279" t="s">
+        <v>561</v>
       </c>
       <c r="D279" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="E279" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="G279" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B280" t="s">
-        <v>269</v>
+        <v>430</v>
+      </c>
+      <c r="C280" t="s">
+        <v>561</v>
       </c>
       <c r="D280" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="E280" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="G280" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B281" t="s">
-        <v>422</v>
+        <v>276</v>
+      </c>
+      <c r="C281" t="s">
+        <v>561</v>
       </c>
       <c r="D281" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E281" t="s">
         <v>850</v>
       </c>
       <c r="G281" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B282" t="s">
-        <v>423</v>
+        <v>431</v>
+      </c>
+      <c r="C282" t="s">
+        <v>561</v>
       </c>
       <c r="D282" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="E282" t="s">
-        <v>836</v>
+        <v>857</v>
       </c>
       <c r="G282" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B283" t="s">
-        <v>424</v>
+        <v>432</v>
+      </c>
+      <c r="C283" t="s">
+        <v>561</v>
       </c>
       <c r="D283" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="E283" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="G283" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="B284" t="s">
-        <v>425</v>
+        <v>433</v>
+      </c>
+      <c r="C284" t="s">
+        <v>561</v>
       </c>
       <c r="D284" t="s">
-        <v>771</v>
+        <v>816</v>
       </c>
       <c r="E284" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="G284" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B285" t="s">
-        <v>271</v>
+        <v>434</v>
+      </c>
+      <c r="C285" t="s">
+        <v>561</v>
       </c>
       <c r="D285" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="E285" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="G285" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="B286" t="s">
-        <v>426</v>
+        <v>435</v>
+      </c>
+      <c r="C286" t="s">
+        <v>561</v>
       </c>
       <c r="D286" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="E286" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="G286" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B287" t="s">
-        <v>427</v>
+        <v>436</v>
+      </c>
+      <c r="C287" t="s">
+        <v>561</v>
       </c>
       <c r="D287" t="s">
-        <v>812</v>
+        <v>645</v>
       </c>
       <c r="E287" t="s">
-        <v>846</v>
+        <v>868</v>
       </c>
       <c r="G287" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B288" t="s">
-        <v>428</v>
+        <v>436</v>
+      </c>
+      <c r="C288" t="s">
+        <v>561</v>
       </c>
       <c r="D288" t="s">
-        <v>813</v>
+        <v>653</v>
       </c>
       <c r="E288" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G288" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="B289" t="s">
-        <v>429</v>
+        <v>231</v>
+      </c>
+      <c r="C289" t="s">
+        <v>561</v>
       </c>
       <c r="D289" t="s">
-        <v>688</v>
+        <v>819</v>
       </c>
       <c r="E289" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
       <c r="G289" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="B290" t="s">
-        <v>430</v>
+        <v>231</v>
+      </c>
+      <c r="C290" t="s">
+        <v>561</v>
       </c>
       <c r="D290" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="E290" t="s">
-        <v>850</v>
+        <v>871</v>
       </c>
       <c r="G290" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B291" t="s">
-        <v>431</v>
+        <v>81</v>
+      </c>
+      <c r="C291" t="s">
+        <v>561</v>
       </c>
       <c r="D291" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="E291" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="G291" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B292" t="s">
-        <v>431</v>
+        <v>437</v>
+      </c>
+      <c r="C292" t="s">
+        <v>561</v>
       </c>
       <c r="D292" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="E292" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G292" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="B293" t="s">
-        <v>234</v>
+        <v>438</v>
+      </c>
+      <c r="C293" t="s">
+        <v>562</v>
       </c>
       <c r="D293" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="E293" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="G293" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="B294" t="s">
-        <v>234</v>
+        <v>439</v>
+      </c>
+      <c r="C294" t="s">
+        <v>461</v>
       </c>
       <c r="D294" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="E294" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="G294" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="B295" t="s">
-        <v>81</v>
+        <v>440</v>
+      </c>
+      <c r="C295" t="s">
+        <v>471</v>
       </c>
       <c r="D295" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="E295" t="s">
-        <v>842</v>
+        <v>867</v>
       </c>
       <c r="G295" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="B296" t="s">
-        <v>432</v>
+        <v>441</v>
+      </c>
+      <c r="C296" t="s">
+        <v>481</v>
       </c>
       <c r="D296" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="E296" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="G296" t="s">
-        <v>871</v>
+        <v>892</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="B297" t="s">
-        <v>433</v>
+        <v>276</v>
       </c>
       <c r="C297" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="D297" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E297" t="s">
-        <v>840</v>
+        <v>867</v>
       </c>
       <c r="G297" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="B298" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="C298" t="s">
-        <v>441</v>
+        <v>549</v>
       </c>
       <c r="D298" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="E298" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="G298" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="B299" t="s">
-        <v>434</v>
+        <v>322</v>
       </c>
       <c r="C299" t="s">
-        <v>453</v>
+        <v>555</v>
       </c>
       <c r="D299" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="E299" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G299" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B300" t="s">
-        <v>251</v>
+        <v>442</v>
       </c>
       <c r="C300" t="s">
-        <v>462</v>
+        <v>564</v>
       </c>
       <c r="D300" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="E300" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="G300" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="B301" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="C301" t="s">
-        <v>463</v>
+        <v>565</v>
       </c>
       <c r="D301" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="E301" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="G301" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="B302" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="C302" t="s">
-        <v>467</v>
+        <v>566</v>
       </c>
       <c r="D302" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="E302" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="G302" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B303" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C303" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="D303" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="E303" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G303" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="B304" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C304" t="s">
-        <v>485</v>
+        <v>567</v>
       </c>
       <c r="D304" t="s">
-        <v>828</v>
+        <v>658</v>
       </c>
       <c r="E304" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="G304" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B305" t="s">
-        <v>279</v>
+        <v>444</v>
       </c>
       <c r="C305" t="s">
-        <v>489</v>
+        <v>568</v>
       </c>
       <c r="D305" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="E305" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="G305" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="B306" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="C306" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="D306" t="s">
-        <v>644</v>
+        <v>687</v>
       </c>
       <c r="E306" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="G306" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="B307" t="s">
-        <v>271</v>
+        <v>445</v>
       </c>
       <c r="C307" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="D307" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="E307" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="G307" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B308" t="s">
-        <v>301</v>
+        <v>446</v>
       </c>
       <c r="C308" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="D308" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="E308" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G308" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B309" t="s">
-        <v>278</v>
+        <v>438</v>
       </c>
       <c r="C309" t="s">
-        <v>514</v>
+        <v>562</v>
       </c>
       <c r="D309" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="E309" t="s">
-        <v>836</v>
+        <v>856</v>
       </c>
       <c r="G309" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B310" t="s">
         <v>302</v>
       </c>
       <c r="C310" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D310" t="s">
-        <v>627</v>
+        <v>837</v>
       </c>
       <c r="E310" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
       <c r="G310" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B311" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="C311" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D311" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="E311" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="G311" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B312" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C312" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D312" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="E312" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="G312" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B313" t="s">
-        <v>437</v>
+        <v>367</v>
       </c>
       <c r="C313" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="D313" t="s">
-        <v>834</v>
+        <v>712</v>
       </c>
       <c r="E313" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="G313" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="B314" t="s">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="C314" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="D314" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="E314" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="G314" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B315" t="s">
-        <v>438</v>
+        <v>324</v>
       </c>
       <c r="C315" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D315" t="s">
-        <v>720</v>
+        <v>841</v>
       </c>
       <c r="E315" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G315" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
-      <c r="A316" t="s">
-        <v>202</v>
-      </c>
-      <c r="B316" t="s">
-        <v>319</v>
-      </c>
-      <c r="C316" t="s">
-        <v>559</v>
-      </c>
-      <c r="D316" t="s">
-        <v>575</v>
-      </c>
-      <c r="E316" t="s">
-        <v>845</v>
-      </c>
-      <c r="G316" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/BADGE_ASSIGNMENTS_FINAL.xlsx
+++ b/input_data/BADGE_ASSIGNMENTS_FINAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="953">
   <si>
     <t xml:space="preserve">First Name </t>
   </si>
@@ -745,6 +745,51 @@
     <t>ARON</t>
   </si>
   <si>
+    <t>Shemeles</t>
+  </si>
+  <si>
+    <t>Zelalem</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Misrak</t>
+  </si>
+  <si>
+    <t>Dn</t>
+  </si>
+  <si>
+    <t>Dn.</t>
+  </si>
+  <si>
+    <t>Mulugeta</t>
+  </si>
+  <si>
+    <t>Adamu</t>
+  </si>
+  <si>
+    <t>Meron</t>
+  </si>
+  <si>
+    <t>Yeabsira</t>
+  </si>
+  <si>
+    <t>Lijadis</t>
+  </si>
+  <si>
+    <t>Abraham-</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Mikyas</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>ADUGNA</t>
   </si>
   <si>
@@ -1357,6 +1402,48 @@
     <t>ADMAS</t>
   </si>
   <si>
+    <t>Worku</t>
+  </si>
+  <si>
+    <t>Hailu</t>
+  </si>
+  <si>
+    <t>Frehiwot Wehib</t>
+  </si>
+  <si>
+    <t>Fantaye</t>
+  </si>
+  <si>
+    <t>Dr. Binyam - Belachew</t>
+  </si>
+  <si>
+    <t>Kalabe - Deressa</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>- Mulugeta</t>
+  </si>
+  <si>
+    <t>- Fikre</t>
+  </si>
+  <si>
+    <t>- Layew</t>
+  </si>
+  <si>
+    <t>Mammo</t>
+  </si>
+  <si>
+    <t>- Yimer</t>
+  </si>
+  <si>
+    <t>- Beshah</t>
+  </si>
+  <si>
+    <t>- Abebe</t>
+  </si>
+  <si>
     <t>301A</t>
   </si>
   <si>
@@ -1699,9 +1786,6 @@
     <t>513A</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>301B</t>
   </si>
   <si>
@@ -1732,916 +1816,985 @@
     <t>604D</t>
   </si>
   <si>
-    <t>SAT T17 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T17 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T12 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T7</t>
+    <t>SAT T30 | SUN T35</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T35 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T29</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T5 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T27</t>
+  </si>
+  <si>
+    <t>SAT T34 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T12 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T5</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T4 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T19 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T35</t>
+  </si>
+  <si>
+    <t>SAT T19 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T31</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T23</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T17</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T9 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T32 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T10 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T35 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T32 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T7</t>
   </si>
   <si>
     <t>SAT T6 | SUN T33</t>
   </si>
   <si>
+    <t>SAT T4 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T5</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T11 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T20</t>
+  </si>
+  <si>
+    <t>SAT T19 | SUN T10</t>
+  </si>
+  <si>
+    <t>SAT T13 | SUN T20</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T27</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T5</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T12 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T12 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T32 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T21</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T11 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T4 | SUN T10</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T5 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T9 | SUN T21</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T35 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T19 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T5</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T10 | SUN T20</t>
+  </si>
+  <si>
+    <t>SAT T19 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T13 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T23</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T31</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T32 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T10</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T35</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T17</t>
+  </si>
+  <si>
+    <t>SAT T10 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T12 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T10 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T32 | SUN T21</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T23</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T11 | SUN T29</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T23</t>
+  </si>
+  <si>
+    <t>SAT T19 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T34 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T4</t>
+  </si>
+  <si>
     <t>SAT T31 | SUN T30</t>
   </si>
   <si>
-    <t>SAT T2 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T17</t>
-  </si>
-  <si>
-    <t>SAT T34 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T31 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T10 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T6 | SUN T35</t>
+    <t>SAT T22 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T20 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T27</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T13 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T34 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T10</t>
+  </si>
+  <si>
+    <t>SAT T19 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T9 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T5 | SUN T23</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T32 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T11 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T31 | SUN T33</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T11 | SUN T8</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T31</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T35</t>
+  </si>
+  <si>
+    <t>SAT T11 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T9</t>
   </si>
   <si>
     <t>SAT T28 | SUN T14</t>
   </si>
   <si>
-    <t>SAT T15 | SUN T3</t>
+    <t>SAT T24 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T2 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T17</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T31</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T4 | SUN T21</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T4 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T17</t>
+  </si>
+  <si>
+    <t>SAT T5 | SUN T21</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T20</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T17</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T19 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T17</t>
+  </si>
+  <si>
+    <t>SAT T34 | SUN T23</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T5</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T5</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T13 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T31</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T25 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T4</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T12 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T5 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T14 | SUN T29</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T34 | SUN T17</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T18</t>
+  </si>
+  <si>
+    <t>SAT T12 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T24 | SUN T21</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T15 | SUN T25</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T5</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T19</t>
+  </si>
+  <si>
+    <t>SAT T35 | SUN T27</t>
+  </si>
+  <si>
+    <t>SAT T4 | SUN T26</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T32</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T35</t>
+  </si>
+  <si>
+    <t>SAT T11 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T22 | SUN T10</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T5</t>
+  </si>
+  <si>
+    <t>SAT T1 | SUN T11</t>
+  </si>
+  <si>
+    <t>SAT T19 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T9 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T14</t>
   </si>
   <si>
     <t>SAT T25 | SUN T27</t>
   </si>
   <si>
-    <t>SAT T32 | SUN T17</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T20</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T19 | SUN T25</t>
+    <t>SAT T9 | SUN T15</t>
+  </si>
+  <si>
+    <t>SAT T18 | SUN T6</t>
+  </si>
+  <si>
+    <t>SAT T16 | SUN T24</t>
+  </si>
+  <si>
+    <t>SAT T13 | SUN T10</t>
+  </si>
+  <si>
+    <t>SAT T7 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T8 | SUN T28</t>
+  </si>
+  <si>
+    <t>SAT T30 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T3</t>
+  </si>
+  <si>
+    <t>SAT T17 | SUN T30</t>
   </si>
   <si>
     <t>SAT T21 | SUN T2</t>
   </si>
   <si>
-    <t>SAT T32 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T11 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T9 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T13 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T11 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T10 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T21</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T9 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T13 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T9 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T10 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T19 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T12 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T21</t>
-  </si>
-  <si>
-    <t>SAT T4 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T6 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T9 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T13 | SUN T29</t>
-  </si>
-  <si>
-    <t>SAT T9 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T5 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T10 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T23</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T17 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T23</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T31 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T17</t>
+    <t>SAT T18 | SUN T16</t>
+  </si>
+  <si>
+    <t>SAT T33 | SUN T22</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T33</t>
   </si>
   <si>
     <t>SAT T31 | SUN T13</t>
   </si>
   <si>
-    <t>SAT T3 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T17 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T13 | SUN T35</t>
-  </si>
-  <si>
-    <t>SAT T34 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T6 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T20</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T31</t>
-  </si>
-  <si>
-    <t>SAT T11 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T4 | SUN T23</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T4 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T34 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T13 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T31</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T17 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T16</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T35</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T4</t>
+    <t>SAT T35 | SUN T32</t>
   </si>
   <si>
     <t>SAT T6 | SUN T7</t>
   </si>
   <si>
-    <t>SAT T12 | SUN T29</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T17 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T6 | SUN T16</t>
-  </si>
-  <si>
-    <t>SAT T30 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T31 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T29</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T32 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T6 | SUN T27</t>
-  </si>
-  <si>
-    <t>SAT T32 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T5 | SUN T16</t>
+    <t>SAT T13 | SUN T7</t>
+  </si>
+  <si>
+    <t>SAT T3 | SUN T30</t>
+  </si>
+  <si>
+    <t>SAT T6 | SUN T9</t>
+  </si>
+  <si>
+    <t>SAT T29 | SUN T14</t>
+  </si>
+  <si>
+    <t>SAT T28 | SUN T34</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T35</t>
   </si>
   <si>
     <t>SAT T21 | SUN T12</t>
   </si>
   <si>
-    <t>SAT T33 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T12 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T29</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T20</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T35</t>
-  </si>
-  <si>
-    <t>SAT T5 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T32 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T5 | SUN T23</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T9 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T31</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T11 | SUN T21</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T10 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T21</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T16</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T26</t>
+    <t>SAT T16 | SUN T13</t>
+  </si>
+  <si>
+    <t>SAT T21 | SUN T21</t>
+  </si>
+  <si>
+    <t>SAT T27 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T10 | SUN T12</t>
+  </si>
+  <si>
+    <t>SAT T26 | SUN T1</t>
+  </si>
+  <si>
+    <t>SAT T5 | SUN T24</t>
   </si>
   <si>
     <t>SAT T24 | SUN T11</t>
   </si>
   <si>
-    <t>SAT T24 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T31</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T5 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T17 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T20</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T23</t>
-  </si>
-  <si>
-    <t>SAT T23 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T16</t>
-  </si>
-  <si>
-    <t>SAT T9 | SUN T27</t>
-  </si>
-  <si>
-    <t>SAT T10 | SUN T31</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T13 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T12</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T17</t>
-  </si>
-  <si>
-    <t>SAT T15 | SUN T19</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T5 | SUN T27</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T12 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T32 | SUN T23</t>
-  </si>
-  <si>
-    <t>SAT T31 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T4 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T10 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T4 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T20 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T19 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T13</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T29</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T11</t>
-  </si>
-  <si>
-    <t>SAT T18 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T11 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T24</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T26</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T4</t>
-  </si>
-  <si>
-    <t>SAT T34 | SUN T22</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T2</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T3</t>
-  </si>
-  <si>
-    <t>SAT T2 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T1</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T18</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T22 | SUN T27</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T21</t>
-  </si>
-  <si>
-    <t>SAT T25 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T32 | SUN T16</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T5</t>
-  </si>
-  <si>
-    <t>SAT T1 | SUN T8</t>
-  </si>
-  <si>
-    <t>SAT T12 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T33 | SUN T20</t>
-  </si>
-  <si>
-    <t>SAT T21 | SUN T35</t>
-  </si>
-  <si>
-    <t>SAT T8 | SUN T28</t>
-  </si>
-  <si>
-    <t>SAT T24 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T15</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T25</t>
-  </si>
-  <si>
-    <t>SAT T14 | SUN T6</t>
-  </si>
-  <si>
-    <t>SAT T7 | SUN T27</t>
-  </si>
-  <si>
-    <t>SAT T34 | SUN T10</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T27</t>
-  </si>
-  <si>
-    <t>SAT T27 | SUN T33</t>
-  </si>
-  <si>
-    <t>SAT T17 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T32</t>
-  </si>
-  <si>
-    <t>SAT T13 | SUN T7</t>
-  </si>
-  <si>
-    <t>SAT T3 | SUN T30</t>
-  </si>
-  <si>
-    <t>SAT T6 | SUN T9</t>
-  </si>
-  <si>
-    <t>SAT T29 | SUN T14</t>
-  </si>
-  <si>
-    <t>SAT T28 | SUN T34</t>
-  </si>
-  <si>
-    <t>SAT T26 | SUN T35</t>
-  </si>
-  <si>
-    <t>SAT T35 | SUN T27</t>
-  </si>
-  <si>
-    <t>SAT T16 | SUN T13</t>
+    <t>SAT T15 | SUN T2</t>
+  </si>
+  <si>
+    <t>SAT T23 | SUN T11</t>
+  </si>
+  <si>
+    <t>DE 9</t>
+  </si>
+  <si>
+    <t>DE 12</t>
+  </si>
+  <si>
+    <t>DA 4</t>
   </si>
   <si>
     <t>DE 1</t>
   </si>
   <si>
+    <t>DA 7</t>
+  </si>
+  <si>
+    <t>DE 10</t>
+  </si>
+  <si>
     <t>DE 17</t>
   </si>
   <si>
     <t>DA 6</t>
   </si>
   <si>
+    <t>DE 22</t>
+  </si>
+  <si>
+    <t>DE 5</t>
+  </si>
+  <si>
+    <t>DA 5</t>
+  </si>
+  <si>
+    <t>DE 14</t>
+  </si>
+  <si>
     <t>DE 6</t>
   </si>
   <si>
-    <t>DA 7</t>
+    <t>DE 8</t>
+  </si>
+  <si>
+    <t>DA 8</t>
+  </si>
+  <si>
+    <t>DA 1</t>
+  </si>
+  <si>
+    <t>DE 15</t>
+  </si>
+  <si>
+    <t>DE 4</t>
+  </si>
+  <si>
+    <t>DE 16</t>
+  </si>
+  <si>
+    <t>DE 18</t>
+  </si>
+  <si>
+    <t>DE 3</t>
+  </si>
+  <si>
+    <t>DA 3</t>
+  </si>
+  <si>
+    <t>DE 7</t>
+  </si>
+  <si>
+    <t>DE 20</t>
+  </si>
+  <si>
+    <t>DE 13</t>
+  </si>
+  <si>
+    <t>DE 2</t>
+  </si>
+  <si>
+    <t>DA 2</t>
   </si>
   <si>
     <t>DE 19</t>
   </si>
   <si>
-    <t>DE 24</t>
-  </si>
-  <si>
-    <t>DA 5</t>
-  </si>
-  <si>
-    <t>DE 13</t>
-  </si>
-  <si>
-    <t>DE 4</t>
-  </si>
-  <si>
-    <t>DE 3</t>
-  </si>
-  <si>
-    <t>DE 7</t>
-  </si>
-  <si>
-    <t>DE 5</t>
-  </si>
-  <si>
-    <t>DA 4</t>
-  </si>
-  <si>
-    <t>DA 1</t>
-  </si>
-  <si>
-    <t>DA 2</t>
+    <t>DE 23</t>
   </si>
   <si>
     <t>DE 21</t>
   </si>
   <si>
-    <t>DA 3</t>
-  </si>
-  <si>
-    <t>DE 14</t>
-  </si>
-  <si>
-    <t>DE 18</t>
-  </si>
-  <si>
-    <t>DE 23</t>
-  </si>
-  <si>
-    <t>DE 15</t>
-  </si>
-  <si>
-    <t>DE 10</t>
-  </si>
-  <si>
     <t>DE 11</t>
   </si>
   <si>
-    <t>DE 2</t>
-  </si>
-  <si>
-    <t>DE 8</t>
-  </si>
-  <si>
-    <t>DE 9</t>
-  </si>
-  <si>
-    <t>DE 12</t>
-  </si>
-  <si>
-    <t>DE 16</t>
-  </si>
-  <si>
     <t>DA 9</t>
   </si>
   <si>
-    <t>DE 22</t>
-  </si>
-  <si>
-    <t>DE 20</t>
-  </si>
-  <si>
-    <t>DA 8</t>
-  </si>
-  <si>
-    <t>DE 25</t>
+    <t>DE 26</t>
+  </si>
+  <si>
+    <t>DE 27</t>
+  </si>
+  <si>
+    <t>DE 28</t>
+  </si>
+  <si>
+    <t>DE 29</t>
+  </si>
+  <si>
+    <t>DE 30</t>
+  </si>
+  <si>
+    <t>DE 31</t>
+  </si>
+  <si>
+    <t>DE 32</t>
+  </si>
+  <si>
+    <t>DE 33</t>
+  </si>
+  <si>
+    <t>DE 34</t>
+  </si>
+  <si>
+    <t>DE 35</t>
   </si>
   <si>
     <t>LOS ANGELES CAMPUS MINISTRY</t>
@@ -2696,6 +2849,30 @@
   </si>
   <si>
     <t>Graduate</t>
+  </si>
+  <si>
+    <t>VCM Coordinator</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Head of US - MKCM</t>
+  </si>
+  <si>
+    <t>Atlanta Coordinator</t>
+  </si>
+  <si>
+    <t>I don't have Campus Ministry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Washington University Campus Ministry </t>
+  </si>
+  <si>
+    <t>Los Angelos Campus Ministry</t>
+  </si>
+  <si>
+    <t>Atlanta, Georgia Campus Ministry</t>
   </si>
 </sst>
 </file>
@@ -3053,7 +3230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J315"/>
+  <dimension ref="A1:J330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3096,19 +3273,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="D2" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="E2" t="s">
-        <v>842</v>
+        <v>885</v>
       </c>
       <c r="G2" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3116,19 +3293,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="D3" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="E3" t="s">
-        <v>843</v>
+        <v>886</v>
       </c>
       <c r="G3" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3136,19 +3313,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="D4" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="E4" t="s">
-        <v>844</v>
+        <v>887</v>
       </c>
       <c r="G4" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3156,19 +3333,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="D5" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="E5" t="s">
-        <v>845</v>
+        <v>888</v>
       </c>
       <c r="G5" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3176,19 +3353,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="D6" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="E6" t="s">
-        <v>846</v>
+        <v>889</v>
       </c>
       <c r="G6" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3196,19 +3373,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="D7" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="E7" t="s">
-        <v>847</v>
+        <v>890</v>
       </c>
       <c r="G7" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3216,19 +3393,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="D8" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="E8" t="s">
-        <v>848</v>
+        <v>891</v>
       </c>
       <c r="G8" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3236,19 +3413,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="D9" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="E9" t="s">
-        <v>849</v>
+        <v>892</v>
       </c>
       <c r="G9" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3256,19 +3433,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="D10" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="E10" t="s">
-        <v>850</v>
+        <v>893</v>
       </c>
       <c r="G10" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3276,19 +3453,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="D11" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="E11" t="s">
-        <v>851</v>
+        <v>894</v>
       </c>
       <c r="G11" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3296,19 +3473,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="D12" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="E12" t="s">
-        <v>852</v>
+        <v>894</v>
       </c>
       <c r="G12" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3316,19 +3493,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="D13" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
       <c r="E13" t="s">
-        <v>842</v>
+        <v>894</v>
       </c>
       <c r="G13" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3336,19 +3513,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="D14" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="E14" t="s">
-        <v>844</v>
+        <v>895</v>
       </c>
       <c r="G14" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3359,16 +3536,16 @@
         <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="D15" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="E15" t="s">
-        <v>847</v>
+        <v>896</v>
       </c>
       <c r="G15" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3376,19 +3553,19 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C16" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="D16" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="E16" t="s">
-        <v>842</v>
+        <v>897</v>
       </c>
       <c r="G16" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3396,19 +3573,19 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C17" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="D17" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="E17" t="s">
-        <v>853</v>
+        <v>897</v>
       </c>
       <c r="G17" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3416,19 +3593,19 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="D18" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="E18" t="s">
-        <v>852</v>
+        <v>886</v>
       </c>
       <c r="G18" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3436,19 +3613,19 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C19" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="D19" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="E19" t="s">
-        <v>842</v>
+        <v>888</v>
       </c>
       <c r="G19" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3456,19 +3633,19 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C20" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="D20" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="E20" t="s">
-        <v>854</v>
+        <v>898</v>
       </c>
       <c r="G20" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3476,19 +3653,19 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C21" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="D21" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="E21" t="s">
-        <v>842</v>
+        <v>888</v>
       </c>
       <c r="G21" t="s">
-        <v>882</v>
+        <v>933</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3496,19 +3673,19 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C22" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="D22" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="E22" t="s">
-        <v>844</v>
+        <v>895</v>
       </c>
       <c r="G22" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3516,19 +3693,19 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="D23" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="E23" t="s">
-        <v>845</v>
+        <v>888</v>
       </c>
       <c r="G23" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3536,19 +3713,19 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C24" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="D24" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="E24" t="s">
-        <v>855</v>
+        <v>899</v>
       </c>
       <c r="G24" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3556,19 +3733,19 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C25" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="E25" t="s">
-        <v>856</v>
+        <v>900</v>
       </c>
       <c r="G25" t="s">
-        <v>883</v>
+        <v>934</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3576,19 +3753,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C26" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="D26" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="E26" t="s">
-        <v>842</v>
+        <v>897</v>
       </c>
       <c r="G26" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3596,19 +3773,19 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C27" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="D27" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E27" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
       <c r="G27" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3616,19 +3793,19 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C28" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="D28" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="E28" t="s">
-        <v>856</v>
+        <v>900</v>
       </c>
       <c r="G28" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3636,19 +3813,19 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C29" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="D29" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="E29" t="s">
-        <v>858</v>
+        <v>901</v>
       </c>
       <c r="G29" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3656,19 +3833,19 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C30" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="D30" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="E30" t="s">
-        <v>855</v>
+        <v>889</v>
       </c>
       <c r="G30" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3676,19 +3853,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C31" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="D31" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="E31" t="s">
-        <v>849</v>
+        <v>887</v>
       </c>
       <c r="G31" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3696,19 +3873,19 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C32" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="D32" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="E32" t="s">
-        <v>844</v>
+        <v>900</v>
       </c>
       <c r="G32" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3716,19 +3893,19 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C33" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="D33" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
       <c r="E33" t="s">
-        <v>844</v>
+        <v>887</v>
       </c>
       <c r="G33" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3736,19 +3913,19 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C34" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="D34" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="E34" t="s">
-        <v>851</v>
+        <v>894</v>
       </c>
       <c r="G34" t="s">
-        <v>884</v>
+        <v>935</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3756,19 +3933,19 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C35" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="D35" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="E35" t="s">
-        <v>849</v>
+        <v>892</v>
       </c>
       <c r="G35" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3776,19 +3953,19 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C36" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="D36" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="E36" t="s">
-        <v>859</v>
+        <v>900</v>
       </c>
       <c r="G36" t="s">
-        <v>882</v>
+        <v>933</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3796,19 +3973,19 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C37" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="D37" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="E37" t="s">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="G37" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3816,19 +3993,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C38" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="D38" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="E38" t="s">
-        <v>861</v>
+        <v>891</v>
       </c>
       <c r="G38" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3836,19 +4013,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C39" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="D39" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="E39" t="s">
-        <v>842</v>
+        <v>902</v>
       </c>
       <c r="G39" t="s">
-        <v>884</v>
+        <v>935</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3856,19 +4033,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C40" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="D40" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="E40" t="s">
-        <v>862</v>
+        <v>891</v>
       </c>
       <c r="G40" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3876,19 +4053,19 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C41" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="D41" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="E41" t="s">
-        <v>842</v>
+        <v>903</v>
       </c>
       <c r="G41" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3896,19 +4073,19 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C42" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="D42" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="E42" t="s">
-        <v>863</v>
+        <v>904</v>
       </c>
       <c r="G42" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3916,19 +4093,19 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C43" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="D43" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="E43" t="s">
-        <v>854</v>
+        <v>905</v>
       </c>
       <c r="G43" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3939,16 +4116,16 @@
         <v>197</v>
       </c>
       <c r="C44" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="D44" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="E44" t="s">
-        <v>855</v>
+        <v>895</v>
       </c>
       <c r="G44" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3956,19 +4133,19 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C45" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="D45" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="E45" t="s">
-        <v>844</v>
+        <v>906</v>
       </c>
       <c r="G45" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3976,19 +4153,19 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C46" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="D46" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
       <c r="E46" t="s">
-        <v>864</v>
+        <v>907</v>
       </c>
       <c r="G46" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3996,19 +4173,19 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C47" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="D47" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="E47" t="s">
-        <v>860</v>
+        <v>908</v>
       </c>
       <c r="G47" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4016,19 +4193,19 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C48" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="D48" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
       <c r="E48" t="s">
-        <v>855</v>
+        <v>900</v>
       </c>
       <c r="G48" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4036,19 +4213,19 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C49" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="D49" t="s">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="E49" t="s">
-        <v>856</v>
+        <v>892</v>
       </c>
       <c r="G49" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4056,19 +4233,19 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C50" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="D50" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="E50" t="s">
-        <v>859</v>
+        <v>906</v>
       </c>
       <c r="G50" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4076,19 +4253,19 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C51" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="D51" t="s">
-        <v>619</v>
+        <v>648</v>
       </c>
       <c r="E51" t="s">
-        <v>847</v>
+        <v>909</v>
       </c>
       <c r="G51" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4096,19 +4273,19 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C52" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="D52" t="s">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="E52" t="s">
-        <v>864</v>
+        <v>910</v>
       </c>
       <c r="G52" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4116,19 +4293,19 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C53" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="D53" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="E53" t="s">
-        <v>865</v>
+        <v>897</v>
       </c>
       <c r="G53" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4136,19 +4313,19 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C54" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="D54" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="E54" t="s">
-        <v>866</v>
+        <v>910</v>
       </c>
       <c r="G54" t="s">
-        <v>886</v>
+        <v>937</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4156,19 +4333,19 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C55" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="D55" t="s">
-        <v>623</v>
+        <v>652</v>
       </c>
       <c r="E55" t="s">
-        <v>854</v>
+        <v>888</v>
       </c>
       <c r="G55" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4176,19 +4353,19 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C56" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="D56" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="E56" t="s">
-        <v>861</v>
+        <v>903</v>
       </c>
       <c r="G56" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4199,16 +4376,16 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="D57" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="E57" t="s">
-        <v>845</v>
+        <v>885</v>
       </c>
       <c r="G57" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4216,19 +4393,19 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C58" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="D58" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="E58" t="s">
-        <v>867</v>
+        <v>907</v>
       </c>
       <c r="G58" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4236,19 +4413,19 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C59" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="D59" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="E59" t="s">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="G59" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4256,19 +4433,19 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="D60" t="s">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="E60" t="s">
-        <v>863</v>
+        <v>886</v>
       </c>
       <c r="G60" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4276,19 +4453,19 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="D61" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="E61" t="s">
-        <v>866</v>
+        <v>910</v>
       </c>
       <c r="G61" t="s">
-        <v>887</v>
+        <v>938</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4296,19 +4473,19 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C62" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="D62" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="E62" t="s">
-        <v>865</v>
+        <v>908</v>
       </c>
       <c r="G62" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -4316,19 +4493,19 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C63" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="D63" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="E63" t="s">
-        <v>860</v>
+        <v>904</v>
       </c>
       <c r="G63" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4336,19 +4513,19 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="C64" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="D64" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="E64" t="s">
-        <v>859</v>
+        <v>895</v>
       </c>
       <c r="G64" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -4356,19 +4533,19 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C65" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="D65" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E65" t="s">
-        <v>851</v>
+        <v>894</v>
       </c>
       <c r="G65" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4376,19 +4553,19 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C66" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="D66" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="E66" t="s">
-        <v>859</v>
+        <v>900</v>
       </c>
       <c r="G66" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4396,19 +4573,19 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C67" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="D67" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="E67" t="s">
-        <v>845</v>
+        <v>898</v>
       </c>
       <c r="G67" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4416,19 +4593,19 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C68" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="D68" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="E68" t="s">
-        <v>866</v>
+        <v>907</v>
       </c>
       <c r="G68" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4436,19 +4613,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C69" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="D69" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="E69" t="s">
-        <v>851</v>
+        <v>902</v>
       </c>
       <c r="G69" t="s">
-        <v>886</v>
+        <v>937</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4456,19 +4633,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C70" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="D70" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="E70" t="s">
-        <v>865</v>
+        <v>891</v>
       </c>
       <c r="G70" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4476,19 +4653,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C71" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="D71" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="E71" t="s">
-        <v>851</v>
+        <v>897</v>
       </c>
       <c r="G71" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4496,19 +4673,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="D72" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="E72" t="s">
-        <v>856</v>
+        <v>906</v>
       </c>
       <c r="G72" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4516,19 +4693,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D73" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="E73" t="s">
-        <v>866</v>
+        <v>910</v>
       </c>
       <c r="G73" t="s">
-        <v>889</v>
+        <v>940</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4539,16 +4716,16 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="D74" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="E74" t="s">
-        <v>857</v>
+        <v>911</v>
       </c>
       <c r="G74" t="s">
-        <v>889</v>
+        <v>940</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4556,19 +4733,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C75" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="D75" t="s">
-        <v>618</v>
+        <v>670</v>
       </c>
       <c r="E75" t="s">
-        <v>846</v>
+        <v>895</v>
       </c>
       <c r="G75" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4576,19 +4753,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="C76" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="D76" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="E76" t="s">
-        <v>843</v>
+        <v>893</v>
       </c>
       <c r="G76" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4596,19 +4773,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C77" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="D77" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="E77" t="s">
-        <v>843</v>
+        <v>890</v>
       </c>
       <c r="G77" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4616,19 +4793,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C78" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="D78" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="E78" t="s">
-        <v>850</v>
+        <v>896</v>
       </c>
       <c r="G78" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4636,19 +4813,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C79" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="D79" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="E79" t="s">
-        <v>853</v>
+        <v>910</v>
       </c>
       <c r="G79" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4656,19 +4833,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C80" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="D80" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="E80" t="s">
-        <v>850</v>
+        <v>885</v>
       </c>
       <c r="G80" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4676,19 +4853,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C81" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="D81" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="E81" t="s">
-        <v>867</v>
+        <v>902</v>
       </c>
       <c r="G81" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4696,19 +4873,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C82" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="D82" t="s">
         <v>648</v>
       </c>
       <c r="E82" t="s">
-        <v>869</v>
+        <v>912</v>
       </c>
       <c r="G82" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4716,19 +4893,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C83" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="D83" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="E83" t="s">
-        <v>866</v>
+        <v>910</v>
       </c>
       <c r="G83" t="s">
-        <v>882</v>
+        <v>933</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4736,19 +4913,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C84" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="D84" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="E84" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
       <c r="G84" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4756,19 +4933,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C85" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="D85" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="E85" t="s">
-        <v>855</v>
+        <v>895</v>
       </c>
       <c r="G85" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4776,19 +4953,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C86" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="D86" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="E86" t="s">
-        <v>870</v>
+        <v>903</v>
       </c>
       <c r="G86" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4796,19 +4973,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C87" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="D87" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="E87" t="s">
-        <v>871</v>
+        <v>899</v>
       </c>
       <c r="G87" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4816,19 +4993,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C88" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="D88" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="E88" t="s">
-        <v>868</v>
+        <v>890</v>
       </c>
       <c r="G88" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4839,16 +5016,16 @@
         <v>225</v>
       </c>
       <c r="C89" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="D89" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="E89" t="s">
-        <v>867</v>
+        <v>897</v>
       </c>
       <c r="G89" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4856,19 +5033,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C90" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="D90" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="E90" t="s">
-        <v>843</v>
+        <v>913</v>
       </c>
       <c r="G90" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4876,19 +5053,19 @@
         <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C91" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="D91" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="E91" t="s">
-        <v>865</v>
+        <v>902</v>
       </c>
       <c r="G91" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4896,19 +5073,19 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C92" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="D92" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="E92" t="s">
-        <v>868</v>
+        <v>898</v>
       </c>
       <c r="G92" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4916,19 +5093,19 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>538</v>
+        <v>567</v>
       </c>
       <c r="D93" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="E93" t="s">
-        <v>854</v>
+        <v>907</v>
       </c>
       <c r="G93" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4936,19 +5113,19 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C94" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="D94" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="E94" t="s">
-        <v>854</v>
+        <v>905</v>
       </c>
       <c r="G94" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4956,19 +5133,19 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C95" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="D95" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="E95" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="G95" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4976,19 +5153,19 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C96" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="D96" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="E96" t="s">
-        <v>864</v>
+        <v>891</v>
       </c>
       <c r="G96" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4996,19 +5173,19 @@
         <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C97" t="s">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="D97" t="s">
-        <v>621</v>
+        <v>689</v>
       </c>
       <c r="E97" t="s">
-        <v>849</v>
+        <v>900</v>
       </c>
       <c r="G97" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5019,16 +5196,16 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="D98" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="E98" t="s">
-        <v>858</v>
+        <v>912</v>
       </c>
       <c r="G98" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5036,19 +5213,19 @@
         <v>86</v>
       </c>
       <c r="B99" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C99" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="D99" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="E99" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
       <c r="G99" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5056,19 +5233,19 @@
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C100" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="D100" t="s">
-        <v>581</v>
+        <v>645</v>
       </c>
       <c r="E100" t="s">
-        <v>843</v>
+        <v>912</v>
       </c>
       <c r="G100" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5076,19 +5253,19 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="C101" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="D101" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="E101" t="s">
-        <v>870</v>
+        <v>904</v>
       </c>
       <c r="G101" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5096,19 +5273,19 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C102" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="D102" t="s">
-        <v>625</v>
+        <v>691</v>
       </c>
       <c r="E102" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="G102" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5116,19 +5293,19 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C103" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="D103" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E103" t="s">
-        <v>868</v>
+        <v>907</v>
       </c>
       <c r="G103" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5136,19 +5313,19 @@
         <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C104" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="D104" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
       <c r="E104" t="s">
-        <v>866</v>
+        <v>902</v>
       </c>
       <c r="G104" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5156,19 +5333,19 @@
         <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C105" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="D105" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="E105" t="s">
-        <v>862</v>
+        <v>915</v>
       </c>
       <c r="G105" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5176,19 +5353,19 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C106" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="D106" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
       <c r="E106" t="s">
-        <v>864</v>
+        <v>905</v>
       </c>
       <c r="G106" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5196,19 +5373,19 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="D107" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="E107" t="s">
-        <v>853</v>
+        <v>907</v>
       </c>
       <c r="G107" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5216,19 +5393,19 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C108" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="D108" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
       <c r="E108" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
       <c r="G108" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5236,19 +5413,19 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C109" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="D109" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="E109" t="s">
-        <v>868</v>
+        <v>898</v>
       </c>
       <c r="G109" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5256,19 +5433,19 @@
         <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C110" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="D110" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="E110" t="s">
-        <v>853</v>
+        <v>909</v>
       </c>
       <c r="G110" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5276,19 +5453,19 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="C111" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="D111" t="s">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="E111" t="s">
-        <v>856</v>
+        <v>892</v>
       </c>
       <c r="G111" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5296,19 +5473,19 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C112" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="D112" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="E112" t="s">
-        <v>853</v>
+        <v>898</v>
       </c>
       <c r="G112" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5316,19 +5493,19 @@
         <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C113" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="D113" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="E113" t="s">
-        <v>869</v>
+        <v>908</v>
       </c>
       <c r="G113" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -5336,19 +5513,19 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C114" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
       <c r="D114" t="s">
-        <v>676</v>
+        <v>701</v>
       </c>
       <c r="E114" t="s">
-        <v>859</v>
+        <v>900</v>
       </c>
       <c r="G114" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -5356,19 +5533,19 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C115" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="D115" t="s">
-        <v>677</v>
+        <v>702</v>
       </c>
       <c r="E115" t="s">
-        <v>857</v>
+        <v>911</v>
       </c>
       <c r="G115" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5376,19 +5553,16 @@
         <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>324</v>
-      </c>
-      <c r="C116" t="s">
-        <v>561</v>
+        <v>339</v>
       </c>
       <c r="D116" t="s">
-        <v>678</v>
+        <v>703</v>
       </c>
       <c r="E116" t="s">
-        <v>848</v>
+        <v>915</v>
       </c>
       <c r="G116" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5398,17 +5572,14 @@
       <c r="B117" t="s">
         <v>226</v>
       </c>
-      <c r="C117" t="s">
-        <v>561</v>
-      </c>
       <c r="D117" t="s">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="E117" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="G117" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5416,19 +5587,16 @@
         <v>112</v>
       </c>
       <c r="B118" t="s">
-        <v>319</v>
-      </c>
-      <c r="C118" t="s">
-        <v>561</v>
+        <v>334</v>
       </c>
       <c r="D118" t="s">
-        <v>680</v>
+        <v>705</v>
       </c>
       <c r="E118" t="s">
-        <v>856</v>
+        <v>887</v>
       </c>
       <c r="G118" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5436,19 +5604,16 @@
         <v>113</v>
       </c>
       <c r="B119" t="s">
-        <v>319</v>
-      </c>
-      <c r="C119" t="s">
-        <v>561</v>
+        <v>334</v>
       </c>
       <c r="D119" t="s">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="E119" t="s">
-        <v>850</v>
+        <v>915</v>
       </c>
       <c r="G119" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5456,19 +5621,16 @@
         <v>114</v>
       </c>
       <c r="B120" t="s">
-        <v>328</v>
-      </c>
-      <c r="C120" t="s">
-        <v>561</v>
+        <v>343</v>
       </c>
       <c r="D120" t="s">
-        <v>682</v>
+        <v>707</v>
       </c>
       <c r="E120" t="s">
-        <v>858</v>
+        <v>904</v>
       </c>
       <c r="G120" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5476,19 +5638,16 @@
         <v>115</v>
       </c>
       <c r="B121" t="s">
-        <v>329</v>
-      </c>
-      <c r="C121" t="s">
-        <v>561</v>
+        <v>344</v>
       </c>
       <c r="D121" t="s">
-        <v>683</v>
+        <v>629</v>
       </c>
       <c r="E121" t="s">
-        <v>847</v>
+        <v>894</v>
       </c>
       <c r="G121" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5496,19 +5655,16 @@
         <v>116</v>
       </c>
       <c r="B122" t="s">
-        <v>330</v>
-      </c>
-      <c r="C122" t="s">
-        <v>561</v>
+        <v>345</v>
       </c>
       <c r="D122" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="E122" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="G122" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5516,19 +5672,16 @@
         <v>117</v>
       </c>
       <c r="B123" t="s">
-        <v>331</v>
-      </c>
-      <c r="C123" t="s">
-        <v>561</v>
+        <v>346</v>
       </c>
       <c r="D123" t="s">
-        <v>604</v>
+        <v>709</v>
       </c>
       <c r="E123" t="s">
-        <v>871</v>
+        <v>899</v>
       </c>
       <c r="G123" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5536,19 +5689,16 @@
         <v>118</v>
       </c>
       <c r="B124" t="s">
-        <v>332</v>
-      </c>
-      <c r="C124" t="s">
-        <v>561</v>
+        <v>347</v>
       </c>
       <c r="D124" t="s">
-        <v>685</v>
+        <v>710</v>
       </c>
       <c r="E124" t="s">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="G124" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5556,19 +5706,16 @@
         <v>119</v>
       </c>
       <c r="B125" t="s">
-        <v>333</v>
-      </c>
-      <c r="C125" t="s">
-        <v>561</v>
+        <v>348</v>
       </c>
       <c r="D125" t="s">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="E125" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="G125" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5576,19 +5723,16 @@
         <v>120</v>
       </c>
       <c r="B126" t="s">
-        <v>334</v>
-      </c>
-      <c r="C126" t="s">
-        <v>561</v>
+        <v>349</v>
       </c>
       <c r="D126" t="s">
-        <v>599</v>
+        <v>712</v>
       </c>
       <c r="E126" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
       <c r="G126" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5596,19 +5740,16 @@
         <v>121</v>
       </c>
       <c r="B127" t="s">
-        <v>334</v>
-      </c>
-      <c r="C127" t="s">
-        <v>561</v>
+        <v>349</v>
       </c>
       <c r="D127" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="E127" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
       <c r="G127" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5616,19 +5757,16 @@
         <v>35</v>
       </c>
       <c r="B128" t="s">
-        <v>335</v>
-      </c>
-      <c r="C128" t="s">
-        <v>561</v>
+        <v>350</v>
       </c>
       <c r="D128" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="E128" t="s">
-        <v>862</v>
+        <v>915</v>
       </c>
       <c r="G128" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5636,19 +5774,16 @@
         <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>336</v>
-      </c>
-      <c r="C129" t="s">
-        <v>561</v>
+        <v>351</v>
       </c>
       <c r="D129" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="E129" t="s">
-        <v>864</v>
+        <v>901</v>
       </c>
       <c r="G129" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5656,19 +5791,16 @@
         <v>122</v>
       </c>
       <c r="B130" t="s">
-        <v>337</v>
-      </c>
-      <c r="C130" t="s">
-        <v>561</v>
+        <v>352</v>
       </c>
       <c r="D130" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="E130" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="G130" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5676,19 +5808,16 @@
         <v>123</v>
       </c>
       <c r="B131" t="s">
-        <v>338</v>
-      </c>
-      <c r="C131" t="s">
-        <v>561</v>
+        <v>353</v>
       </c>
       <c r="D131" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="E131" t="s">
-        <v>862</v>
+        <v>893</v>
       </c>
       <c r="G131" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5696,19 +5825,16 @@
         <v>124</v>
       </c>
       <c r="B132" t="s">
-        <v>339</v>
-      </c>
-      <c r="C132" t="s">
-        <v>561</v>
+        <v>354</v>
       </c>
       <c r="D132" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="E132" t="s">
-        <v>858</v>
+        <v>886</v>
       </c>
       <c r="G132" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5716,19 +5842,16 @@
         <v>125</v>
       </c>
       <c r="B133" t="s">
-        <v>340</v>
-      </c>
-      <c r="C133" t="s">
-        <v>561</v>
+        <v>355</v>
       </c>
       <c r="D133" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="E133" t="s">
-        <v>863</v>
+        <v>914</v>
       </c>
       <c r="G133" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5736,19 +5859,16 @@
         <v>126</v>
       </c>
       <c r="B134" t="s">
-        <v>341</v>
-      </c>
-      <c r="C134" t="s">
-        <v>561</v>
+        <v>356</v>
       </c>
       <c r="D134" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E134" t="s">
-        <v>846</v>
+        <v>916</v>
       </c>
       <c r="G134" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5756,19 +5876,16 @@
         <v>127</v>
       </c>
       <c r="B135" t="s">
-        <v>342</v>
-      </c>
-      <c r="C135" t="s">
-        <v>561</v>
+        <v>357</v>
       </c>
       <c r="D135" t="s">
-        <v>621</v>
+        <v>721</v>
       </c>
       <c r="E135" t="s">
-        <v>844</v>
+        <v>916</v>
       </c>
       <c r="G135" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5776,19 +5893,16 @@
         <v>128</v>
       </c>
       <c r="B136" t="s">
-        <v>343</v>
-      </c>
-      <c r="C136" t="s">
-        <v>561</v>
+        <v>358</v>
       </c>
       <c r="D136" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="E136" t="s">
-        <v>848</v>
+        <v>896</v>
       </c>
       <c r="G136" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5796,19 +5910,16 @@
         <v>129</v>
       </c>
       <c r="B137" t="s">
-        <v>344</v>
-      </c>
-      <c r="C137" t="s">
-        <v>561</v>
+        <v>359</v>
       </c>
       <c r="D137" t="s">
-        <v>592</v>
+        <v>723</v>
       </c>
       <c r="E137" t="s">
-        <v>871</v>
+        <v>916</v>
       </c>
       <c r="G137" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5816,19 +5927,16 @@
         <v>130</v>
       </c>
       <c r="B138" t="s">
-        <v>344</v>
-      </c>
-      <c r="C138" t="s">
-        <v>561</v>
+        <v>359</v>
       </c>
       <c r="D138" t="s">
-        <v>696</v>
+        <v>610</v>
       </c>
       <c r="E138" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="G138" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5836,19 +5944,16 @@
         <v>131</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
-      </c>
-      <c r="C139" t="s">
-        <v>561</v>
+        <v>265</v>
       </c>
       <c r="D139" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="E139" t="s">
-        <v>867</v>
+        <v>893</v>
       </c>
       <c r="G139" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5856,19 +5961,16 @@
         <v>132</v>
       </c>
       <c r="B140" t="s">
-        <v>250</v>
-      </c>
-      <c r="C140" t="s">
-        <v>561</v>
+        <v>265</v>
       </c>
       <c r="D140" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="E140" t="s">
-        <v>860</v>
+        <v>904</v>
       </c>
       <c r="G140" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5876,19 +5978,16 @@
         <v>133</v>
       </c>
       <c r="B141" t="s">
-        <v>345</v>
-      </c>
-      <c r="C141" t="s">
-        <v>561</v>
+        <v>360</v>
       </c>
       <c r="D141" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="E141" t="s">
-        <v>864</v>
+        <v>885</v>
       </c>
       <c r="G141" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5896,19 +5995,16 @@
         <v>134</v>
       </c>
       <c r="B142" t="s">
-        <v>312</v>
-      </c>
-      <c r="C142" t="s">
-        <v>561</v>
+        <v>327</v>
       </c>
       <c r="D142" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="E142" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
       <c r="G142" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5916,19 +6012,16 @@
         <v>135</v>
       </c>
       <c r="B143" t="s">
-        <v>346</v>
-      </c>
-      <c r="C143" t="s">
-        <v>561</v>
+        <v>361</v>
       </c>
       <c r="D143" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="E143" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="G143" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5936,19 +6029,16 @@
         <v>136</v>
       </c>
       <c r="B144" t="s">
-        <v>346</v>
-      </c>
-      <c r="C144" t="s">
-        <v>561</v>
+        <v>361</v>
       </c>
       <c r="D144" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="E144" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="G144" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5956,19 +6046,16 @@
         <v>112</v>
       </c>
       <c r="B145" t="s">
-        <v>347</v>
-      </c>
-      <c r="C145" t="s">
-        <v>561</v>
+        <v>362</v>
       </c>
       <c r="D145" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="E145" t="s">
-        <v>874</v>
+        <v>906</v>
       </c>
       <c r="G145" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5978,17 +6065,14 @@
       <c r="B146" t="s">
         <v>206</v>
       </c>
-      <c r="C146" t="s">
-        <v>561</v>
-      </c>
       <c r="D146" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="E146" t="s">
-        <v>862</v>
+        <v>913</v>
       </c>
       <c r="G146" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5998,17 +6082,14 @@
       <c r="B147" t="s">
         <v>206</v>
       </c>
-      <c r="C147" t="s">
-        <v>561</v>
-      </c>
       <c r="D147" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="E147" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="G147" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -6016,19 +6097,16 @@
         <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>348</v>
-      </c>
-      <c r="C148" t="s">
-        <v>561</v>
+        <v>363</v>
       </c>
       <c r="D148" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="E148" t="s">
-        <v>858</v>
+        <v>913</v>
       </c>
       <c r="G148" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -6036,19 +6114,16 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>349</v>
-      </c>
-      <c r="C149" t="s">
-        <v>561</v>
+        <v>364</v>
       </c>
       <c r="D149" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="E149" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="G149" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -6056,19 +6131,16 @@
         <v>50</v>
       </c>
       <c r="B150" t="s">
-        <v>350</v>
-      </c>
-      <c r="C150" t="s">
-        <v>561</v>
+        <v>365</v>
       </c>
       <c r="D150" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="E150" t="s">
-        <v>861</v>
+        <v>904</v>
       </c>
       <c r="G150" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -6076,19 +6148,16 @@
         <v>139</v>
       </c>
       <c r="B151" t="s">
-        <v>351</v>
-      </c>
-      <c r="C151" t="s">
-        <v>561</v>
+        <v>366</v>
       </c>
       <c r="D151" t="s">
-        <v>708</v>
+        <v>736</v>
       </c>
       <c r="E151" t="s">
-        <v>851</v>
+        <v>912</v>
       </c>
       <c r="G151" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -6096,19 +6165,16 @@
         <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>352</v>
-      </c>
-      <c r="C152" t="s">
-        <v>561</v>
+        <v>367</v>
       </c>
       <c r="D152" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="E152" t="s">
-        <v>870</v>
+        <v>915</v>
       </c>
       <c r="G152" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -6116,19 +6182,16 @@
         <v>141</v>
       </c>
       <c r="B153" t="s">
-        <v>353</v>
-      </c>
-      <c r="C153" t="s">
-        <v>561</v>
+        <v>368</v>
       </c>
       <c r="D153" t="s">
-        <v>683</v>
+        <v>738</v>
       </c>
       <c r="E153" t="s">
-        <v>873</v>
+        <v>904</v>
       </c>
       <c r="G153" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -6136,19 +6199,16 @@
         <v>108</v>
       </c>
       <c r="B154" t="s">
-        <v>353</v>
-      </c>
-      <c r="C154" t="s">
-        <v>561</v>
+        <v>368</v>
       </c>
       <c r="D154" t="s">
-        <v>581</v>
+        <v>739</v>
       </c>
       <c r="E154" t="s">
-        <v>863</v>
+        <v>912</v>
       </c>
       <c r="G154" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -6158,17 +6218,14 @@
       <c r="B155" t="s">
         <v>98</v>
       </c>
-      <c r="C155" t="s">
-        <v>561</v>
-      </c>
       <c r="D155" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="E155" t="s">
-        <v>863</v>
+        <v>904</v>
       </c>
       <c r="G155" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -6176,19 +6233,16 @@
         <v>143</v>
       </c>
       <c r="B156" t="s">
-        <v>354</v>
-      </c>
-      <c r="C156" t="s">
-        <v>561</v>
+        <v>369</v>
       </c>
       <c r="D156" t="s">
-        <v>673</v>
+        <v>741</v>
       </c>
       <c r="E156" t="s">
-        <v>872</v>
+        <v>902</v>
       </c>
       <c r="G156" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -6196,19 +6250,16 @@
         <v>144</v>
       </c>
       <c r="B157" t="s">
-        <v>355</v>
-      </c>
-      <c r="C157" t="s">
-        <v>561</v>
+        <v>370</v>
       </c>
       <c r="D157" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="E157" t="s">
-        <v>861</v>
+        <v>909</v>
       </c>
       <c r="G157" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -6216,19 +6267,16 @@
         <v>145</v>
       </c>
       <c r="B158" t="s">
-        <v>356</v>
-      </c>
-      <c r="C158" t="s">
-        <v>561</v>
+        <v>371</v>
       </c>
       <c r="D158" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
       <c r="E158" t="s">
-        <v>863</v>
+        <v>890</v>
       </c>
       <c r="G158" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -6236,19 +6284,16 @@
         <v>146</v>
       </c>
       <c r="B159" t="s">
-        <v>357</v>
-      </c>
-      <c r="C159" t="s">
-        <v>561</v>
+        <v>372</v>
       </c>
       <c r="D159" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="E159" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="G159" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -6256,19 +6301,16 @@
         <v>147</v>
       </c>
       <c r="B160" t="s">
-        <v>358</v>
-      </c>
-      <c r="C160" t="s">
-        <v>561</v>
+        <v>373</v>
       </c>
       <c r="D160" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="E160" t="s">
-        <v>847</v>
+        <v>896</v>
       </c>
       <c r="G160" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -6276,19 +6318,16 @@
         <v>143</v>
       </c>
       <c r="B161" t="s">
-        <v>359</v>
-      </c>
-      <c r="C161" t="s">
-        <v>561</v>
+        <v>374</v>
       </c>
       <c r="D161" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="E161" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="G161" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -6296,19 +6335,16 @@
         <v>72</v>
       </c>
       <c r="B162" t="s">
-        <v>308</v>
-      </c>
-      <c r="C162" t="s">
-        <v>561</v>
+        <v>323</v>
       </c>
       <c r="D162" t="s">
-        <v>606</v>
+        <v>747</v>
       </c>
       <c r="E162" t="s">
-        <v>863</v>
+        <v>896</v>
       </c>
       <c r="G162" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6316,19 +6352,16 @@
         <v>148</v>
       </c>
       <c r="B163" t="s">
-        <v>308</v>
-      </c>
-      <c r="C163" t="s">
-        <v>561</v>
+        <v>323</v>
       </c>
       <c r="D163" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="E163" t="s">
-        <v>869</v>
+        <v>912</v>
       </c>
       <c r="G163" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -6336,19 +6369,16 @@
         <v>149</v>
       </c>
       <c r="B164" t="s">
-        <v>360</v>
-      </c>
-      <c r="C164" t="s">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D164" t="s">
-        <v>712</v>
+        <v>749</v>
       </c>
       <c r="E164" t="s">
-        <v>863</v>
+        <v>912</v>
       </c>
       <c r="G164" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -6356,19 +6386,16 @@
         <v>150</v>
       </c>
       <c r="B165" t="s">
-        <v>361</v>
-      </c>
-      <c r="C165" t="s">
-        <v>561</v>
+        <v>376</v>
       </c>
       <c r="D165" t="s">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="E165" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="G165" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -6376,19 +6403,16 @@
         <v>27</v>
       </c>
       <c r="B166" t="s">
-        <v>362</v>
-      </c>
-      <c r="C166" t="s">
-        <v>561</v>
+        <v>377</v>
       </c>
       <c r="D166" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="E166" t="s">
-        <v>857</v>
+        <v>911</v>
       </c>
       <c r="G166" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6396,19 +6420,16 @@
         <v>151</v>
       </c>
       <c r="B167" t="s">
-        <v>362</v>
-      </c>
-      <c r="C167" t="s">
-        <v>561</v>
+        <v>377</v>
       </c>
       <c r="D167" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="E167" t="s">
-        <v>855</v>
+        <v>887</v>
       </c>
       <c r="G167" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6416,19 +6437,16 @@
         <v>152</v>
       </c>
       <c r="B168" t="s">
-        <v>263</v>
-      </c>
-      <c r="C168" t="s">
-        <v>561</v>
+        <v>278</v>
       </c>
       <c r="D168" t="s">
-        <v>650</v>
+        <v>752</v>
       </c>
       <c r="E168" t="s">
-        <v>858</v>
+        <v>893</v>
       </c>
       <c r="G168" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -6436,19 +6454,16 @@
         <v>153</v>
       </c>
       <c r="B169" t="s">
-        <v>363</v>
-      </c>
-      <c r="C169" t="s">
-        <v>561</v>
+        <v>378</v>
       </c>
       <c r="D169" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="E169" t="s">
-        <v>857</v>
+        <v>911</v>
       </c>
       <c r="G169" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -6456,19 +6471,16 @@
         <v>154</v>
       </c>
       <c r="B170" t="s">
-        <v>364</v>
-      </c>
-      <c r="C170" t="s">
-        <v>561</v>
+        <v>379</v>
       </c>
       <c r="D170" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="E170" t="s">
-        <v>872</v>
+        <v>909</v>
       </c>
       <c r="G170" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6476,19 +6488,16 @@
         <v>155</v>
       </c>
       <c r="B171" t="s">
-        <v>260</v>
-      </c>
-      <c r="C171" t="s">
-        <v>561</v>
+        <v>275</v>
       </c>
       <c r="D171" t="s">
-        <v>722</v>
+        <v>755</v>
       </c>
       <c r="E171" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
       <c r="G171" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6496,19 +6505,16 @@
         <v>156</v>
       </c>
       <c r="B172" t="s">
-        <v>256</v>
-      </c>
-      <c r="C172" t="s">
-        <v>561</v>
+        <v>271</v>
       </c>
       <c r="D172" t="s">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="E172" t="s">
-        <v>870</v>
+        <v>896</v>
       </c>
       <c r="G172" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6516,19 +6522,16 @@
         <v>157</v>
       </c>
       <c r="B173" t="s">
-        <v>256</v>
-      </c>
-      <c r="C173" t="s">
-        <v>561</v>
+        <v>271</v>
       </c>
       <c r="D173" t="s">
-        <v>724</v>
+        <v>757</v>
       </c>
       <c r="E173" t="s">
-        <v>870</v>
+        <v>909</v>
       </c>
       <c r="G173" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6536,19 +6539,16 @@
         <v>158</v>
       </c>
       <c r="B174" t="s">
-        <v>256</v>
-      </c>
-      <c r="C174" t="s">
-        <v>561</v>
+        <v>271</v>
       </c>
       <c r="D174" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="E174" t="s">
-        <v>848</v>
+        <v>912</v>
       </c>
       <c r="G174" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6556,19 +6556,16 @@
         <v>159</v>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
-      </c>
-      <c r="C175" t="s">
-        <v>561</v>
+        <v>271</v>
       </c>
       <c r="D175" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E175" t="s">
-        <v>849</v>
+        <v>895</v>
       </c>
       <c r="G175" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6576,19 +6573,16 @@
         <v>160</v>
       </c>
       <c r="B176" t="s">
-        <v>365</v>
-      </c>
-      <c r="C176" t="s">
-        <v>561</v>
+        <v>380</v>
       </c>
       <c r="D176" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="E176" t="s">
-        <v>850</v>
+        <v>896</v>
       </c>
       <c r="G176" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6596,19 +6590,16 @@
         <v>161</v>
       </c>
       <c r="B177" t="s">
-        <v>365</v>
-      </c>
-      <c r="C177" t="s">
-        <v>561</v>
+        <v>380</v>
       </c>
       <c r="D177" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="E177" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="G177" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6616,19 +6607,16 @@
         <v>81</v>
       </c>
       <c r="B178" t="s">
-        <v>366</v>
-      </c>
-      <c r="C178" t="s">
-        <v>561</v>
+        <v>381</v>
       </c>
       <c r="D178" t="s">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="E178" t="s">
-        <v>850</v>
+        <v>909</v>
       </c>
       <c r="G178" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6636,19 +6624,16 @@
         <v>162</v>
       </c>
       <c r="B179" t="s">
-        <v>269</v>
-      </c>
-      <c r="C179" t="s">
-        <v>561</v>
+        <v>284</v>
       </c>
       <c r="D179" t="s">
-        <v>718</v>
+        <v>761</v>
       </c>
       <c r="E179" t="s">
-        <v>847</v>
+        <v>909</v>
       </c>
       <c r="G179" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6656,19 +6641,16 @@
         <v>163</v>
       </c>
       <c r="B180" t="s">
-        <v>367</v>
-      </c>
-      <c r="C180" t="s">
-        <v>561</v>
+        <v>382</v>
       </c>
       <c r="D180" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
       <c r="E180" t="s">
-        <v>855</v>
+        <v>906</v>
       </c>
       <c r="G180" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6676,19 +6658,16 @@
         <v>164</v>
       </c>
       <c r="B181" t="s">
-        <v>368</v>
-      </c>
-      <c r="C181" t="s">
-        <v>561</v>
+        <v>383</v>
       </c>
       <c r="D181" t="s">
-        <v>730</v>
+        <v>763</v>
       </c>
       <c r="E181" t="s">
-        <v>853</v>
+        <v>898</v>
       </c>
       <c r="G181" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6696,19 +6675,16 @@
         <v>165</v>
       </c>
       <c r="B182" t="s">
-        <v>369</v>
-      </c>
-      <c r="C182" t="s">
-        <v>561</v>
+        <v>384</v>
       </c>
       <c r="D182" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
       <c r="E182" t="s">
-        <v>873</v>
+        <v>903</v>
       </c>
       <c r="G182" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6716,19 +6692,16 @@
         <v>166</v>
       </c>
       <c r="B183" t="s">
-        <v>369</v>
-      </c>
-      <c r="C183" t="s">
-        <v>561</v>
+        <v>384</v>
       </c>
       <c r="D183" t="s">
-        <v>732</v>
+        <v>630</v>
       </c>
       <c r="E183" t="s">
-        <v>869</v>
+        <v>898</v>
       </c>
       <c r="G183" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6736,19 +6709,16 @@
         <v>95</v>
       </c>
       <c r="B184" t="s">
-        <v>369</v>
-      </c>
-      <c r="C184" t="s">
-        <v>561</v>
+        <v>384</v>
       </c>
       <c r="D184" t="s">
-        <v>733</v>
+        <v>765</v>
       </c>
       <c r="E184" t="s">
-        <v>844</v>
+        <v>899</v>
       </c>
       <c r="G184" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6756,19 +6726,16 @@
         <v>167</v>
       </c>
       <c r="B185" t="s">
-        <v>370</v>
-      </c>
-      <c r="C185" t="s">
-        <v>561</v>
+        <v>385</v>
       </c>
       <c r="D185" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="E185" t="s">
-        <v>865</v>
+        <v>914</v>
       </c>
       <c r="G185" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6778,17 +6745,14 @@
       <c r="B186" t="s">
         <v>116</v>
       </c>
-      <c r="C186" t="s">
-        <v>561</v>
-      </c>
       <c r="D186" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E186" t="s">
-        <v>845</v>
+        <v>915</v>
       </c>
       <c r="G186" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6798,17 +6762,14 @@
       <c r="B187" t="s">
         <v>116</v>
       </c>
-      <c r="C187" t="s">
-        <v>561</v>
-      </c>
       <c r="D187" t="s">
-        <v>594</v>
+        <v>657</v>
       </c>
       <c r="E187" t="s">
-        <v>862</v>
+        <v>894</v>
       </c>
       <c r="G187" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6818,17 +6779,14 @@
       <c r="B188" t="s">
         <v>116</v>
       </c>
-      <c r="C188" t="s">
-        <v>561</v>
-      </c>
       <c r="D188" t="s">
-        <v>736</v>
+        <v>767</v>
       </c>
       <c r="E188" t="s">
-        <v>850</v>
+        <v>908</v>
       </c>
       <c r="G188" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6836,19 +6794,16 @@
         <v>170</v>
       </c>
       <c r="B189" t="s">
-        <v>371</v>
-      </c>
-      <c r="C189" t="s">
-        <v>561</v>
+        <v>386</v>
       </c>
       <c r="D189" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
       <c r="E189" t="s">
-        <v>848</v>
+        <v>909</v>
       </c>
       <c r="G189" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6856,19 +6811,16 @@
         <v>171</v>
       </c>
       <c r="B190" t="s">
-        <v>371</v>
-      </c>
-      <c r="C190" t="s">
-        <v>561</v>
+        <v>386</v>
       </c>
       <c r="D190" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
       <c r="E190" t="s">
-        <v>860</v>
+        <v>903</v>
       </c>
       <c r="G190" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6876,19 +6828,16 @@
         <v>172</v>
       </c>
       <c r="B191" t="s">
-        <v>372</v>
-      </c>
-      <c r="C191" t="s">
-        <v>561</v>
+        <v>387</v>
       </c>
       <c r="D191" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="E191" t="s">
-        <v>859</v>
+        <v>916</v>
       </c>
       <c r="G191" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6896,19 +6845,16 @@
         <v>52</v>
       </c>
       <c r="B192" t="s">
-        <v>373</v>
-      </c>
-      <c r="C192" t="s">
-        <v>561</v>
+        <v>388</v>
       </c>
       <c r="D192" t="s">
-        <v>635</v>
+        <v>771</v>
       </c>
       <c r="E192" t="s">
-        <v>850</v>
+        <v>913</v>
       </c>
       <c r="G192" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6916,19 +6862,16 @@
         <v>173</v>
       </c>
       <c r="B193" t="s">
-        <v>374</v>
-      </c>
-      <c r="C193" t="s">
-        <v>561</v>
+        <v>389</v>
       </c>
       <c r="D193" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="E193" t="s">
-        <v>873</v>
+        <v>912</v>
       </c>
       <c r="G193" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6936,19 +6879,16 @@
         <v>27</v>
       </c>
       <c r="B194" t="s">
-        <v>375</v>
-      </c>
-      <c r="C194" t="s">
-        <v>561</v>
+        <v>390</v>
       </c>
       <c r="D194" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="E194" t="s">
-        <v>843</v>
+        <v>891</v>
       </c>
       <c r="G194" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6956,19 +6896,16 @@
         <v>174</v>
       </c>
       <c r="B195" t="s">
-        <v>376</v>
-      </c>
-      <c r="C195" t="s">
-        <v>561</v>
+        <v>391</v>
       </c>
       <c r="D195" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
       <c r="E195" t="s">
-        <v>861</v>
+        <v>914</v>
       </c>
       <c r="G195" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6976,19 +6913,16 @@
         <v>175</v>
       </c>
       <c r="B196" t="s">
-        <v>377</v>
-      </c>
-      <c r="C196" t="s">
-        <v>561</v>
+        <v>392</v>
       </c>
       <c r="D196" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="E196" t="s">
-        <v>861</v>
+        <v>913</v>
       </c>
       <c r="G196" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6996,19 +6930,16 @@
         <v>100</v>
       </c>
       <c r="B197" t="s">
-        <v>378</v>
-      </c>
-      <c r="C197" t="s">
-        <v>561</v>
+        <v>393</v>
       </c>
       <c r="D197" t="s">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="E197" t="s">
-        <v>873</v>
+        <v>903</v>
       </c>
       <c r="G197" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -7016,19 +6947,16 @@
         <v>58</v>
       </c>
       <c r="B198" t="s">
-        <v>379</v>
-      </c>
-      <c r="C198" t="s">
-        <v>561</v>
+        <v>394</v>
       </c>
       <c r="D198" t="s">
-        <v>745</v>
+        <v>775</v>
       </c>
       <c r="E198" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
       <c r="G198" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -7036,19 +6964,16 @@
         <v>176</v>
       </c>
       <c r="B199" t="s">
-        <v>380</v>
-      </c>
-      <c r="C199" t="s">
-        <v>561</v>
+        <v>395</v>
       </c>
       <c r="D199" t="s">
-        <v>746</v>
+        <v>776</v>
       </c>
       <c r="E199" t="s">
-        <v>858</v>
+        <v>908</v>
       </c>
       <c r="G199" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -7056,19 +6981,16 @@
         <v>137</v>
       </c>
       <c r="B200" t="s">
-        <v>380</v>
-      </c>
-      <c r="C200" t="s">
-        <v>561</v>
+        <v>395</v>
       </c>
       <c r="D200" t="s">
-        <v>747</v>
+        <v>777</v>
       </c>
       <c r="E200" t="s">
-        <v>843</v>
+        <v>908</v>
       </c>
       <c r="G200" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -7076,19 +6998,16 @@
         <v>177</v>
       </c>
       <c r="B201" t="s">
-        <v>381</v>
-      </c>
-      <c r="C201" t="s">
-        <v>561</v>
+        <v>396</v>
       </c>
       <c r="D201" t="s">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="E201" t="s">
-        <v>847</v>
+        <v>914</v>
       </c>
       <c r="G201" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -7096,19 +7015,16 @@
         <v>119</v>
       </c>
       <c r="B202" t="s">
-        <v>382</v>
-      </c>
-      <c r="C202" t="s">
-        <v>561</v>
+        <v>397</v>
       </c>
       <c r="D202" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="E202" t="s">
-        <v>843</v>
+        <v>907</v>
       </c>
       <c r="G202" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -7116,19 +7032,16 @@
         <v>52</v>
       </c>
       <c r="B203" t="s">
-        <v>383</v>
-      </c>
-      <c r="C203" t="s">
-        <v>561</v>
+        <v>398</v>
       </c>
       <c r="D203" t="s">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="E203" t="s">
-        <v>865</v>
+        <v>903</v>
       </c>
       <c r="G203" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -7136,19 +7049,16 @@
         <v>178</v>
       </c>
       <c r="B204" t="s">
-        <v>383</v>
-      </c>
-      <c r="C204" t="s">
-        <v>561</v>
+        <v>398</v>
       </c>
       <c r="D204" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="E204" t="s">
-        <v>866</v>
+        <v>910</v>
       </c>
       <c r="G204" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -7156,19 +7066,16 @@
         <v>179</v>
       </c>
       <c r="B205" t="s">
-        <v>384</v>
-      </c>
-      <c r="C205" t="s">
-        <v>561</v>
+        <v>399</v>
       </c>
       <c r="D205" t="s">
-        <v>752</v>
+        <v>782</v>
       </c>
       <c r="E205" t="s">
-        <v>872</v>
+        <v>893</v>
       </c>
       <c r="G205" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -7176,19 +7083,16 @@
         <v>31</v>
       </c>
       <c r="B206" t="s">
-        <v>274</v>
-      </c>
-      <c r="C206" t="s">
-        <v>561</v>
+        <v>289</v>
       </c>
       <c r="D206" t="s">
-        <v>753</v>
+        <v>783</v>
       </c>
       <c r="E206" t="s">
-        <v>842</v>
+        <v>915</v>
       </c>
       <c r="G206" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -7196,19 +7100,16 @@
         <v>152</v>
       </c>
       <c r="B207" t="s">
-        <v>274</v>
-      </c>
-      <c r="C207" t="s">
-        <v>561</v>
+        <v>289</v>
       </c>
       <c r="D207" t="s">
-        <v>754</v>
+        <v>784</v>
       </c>
       <c r="E207" t="s">
-        <v>845</v>
+        <v>901</v>
       </c>
       <c r="G207" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -7216,19 +7117,16 @@
         <v>180</v>
       </c>
       <c r="B208" t="s">
-        <v>274</v>
-      </c>
-      <c r="C208" t="s">
-        <v>561</v>
+        <v>289</v>
       </c>
       <c r="D208" t="s">
-        <v>755</v>
+        <v>785</v>
       </c>
       <c r="E208" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="G208" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -7236,19 +7134,16 @@
         <v>181</v>
       </c>
       <c r="B209" t="s">
-        <v>305</v>
-      </c>
-      <c r="C209" t="s">
-        <v>561</v>
+        <v>320</v>
       </c>
       <c r="D209" t="s">
-        <v>709</v>
+        <v>786</v>
       </c>
       <c r="E209" t="s">
-        <v>862</v>
+        <v>909</v>
       </c>
       <c r="G209" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -7256,19 +7151,16 @@
         <v>182</v>
       </c>
       <c r="B210" t="s">
-        <v>305</v>
-      </c>
-      <c r="C210" t="s">
-        <v>561</v>
+        <v>320</v>
       </c>
       <c r="D210" t="s">
-        <v>756</v>
+        <v>787</v>
       </c>
       <c r="E210" t="s">
-        <v>860</v>
+        <v>893</v>
       </c>
       <c r="G210" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -7276,19 +7168,16 @@
         <v>183</v>
       </c>
       <c r="B211" t="s">
-        <v>305</v>
-      </c>
-      <c r="C211" t="s">
-        <v>561</v>
+        <v>320</v>
       </c>
       <c r="D211" t="s">
-        <v>757</v>
+        <v>788</v>
       </c>
       <c r="E211" t="s">
-        <v>873</v>
+        <v>915</v>
       </c>
       <c r="G211" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -7296,19 +7185,16 @@
         <v>89</v>
       </c>
       <c r="B212" t="s">
-        <v>385</v>
-      </c>
-      <c r="C212" t="s">
-        <v>561</v>
+        <v>400</v>
       </c>
       <c r="D212" t="s">
-        <v>758</v>
+        <v>789</v>
       </c>
       <c r="E212" t="s">
-        <v>869</v>
+        <v>914</v>
       </c>
       <c r="G212" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -7316,19 +7202,16 @@
         <v>184</v>
       </c>
       <c r="B213" t="s">
-        <v>386</v>
-      </c>
-      <c r="C213" t="s">
-        <v>561</v>
+        <v>401</v>
       </c>
       <c r="D213" t="s">
-        <v>759</v>
+        <v>790</v>
       </c>
       <c r="E213" t="s">
-        <v>870</v>
+        <v>903</v>
       </c>
       <c r="G213" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -7336,19 +7219,16 @@
         <v>156</v>
       </c>
       <c r="B214" t="s">
-        <v>387</v>
-      </c>
-      <c r="C214" t="s">
-        <v>561</v>
+        <v>402</v>
       </c>
       <c r="D214" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="E214" t="s">
-        <v>848</v>
+        <v>908</v>
       </c>
       <c r="G214" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7356,19 +7236,16 @@
         <v>16</v>
       </c>
       <c r="B215" t="s">
-        <v>387</v>
-      </c>
-      <c r="C215" t="s">
-        <v>561</v>
+        <v>402</v>
       </c>
       <c r="D215" t="s">
-        <v>761</v>
+        <v>791</v>
       </c>
       <c r="E215" t="s">
-        <v>848</v>
+        <v>886</v>
       </c>
       <c r="G215" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7376,19 +7253,16 @@
         <v>79</v>
       </c>
       <c r="B216" t="s">
-        <v>388</v>
-      </c>
-      <c r="C216" t="s">
-        <v>561</v>
+        <v>403</v>
       </c>
       <c r="D216" t="s">
-        <v>762</v>
+        <v>792</v>
       </c>
       <c r="E216" t="s">
-        <v>862</v>
+        <v>904</v>
       </c>
       <c r="G216" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7396,19 +7270,16 @@
         <v>185</v>
       </c>
       <c r="B217" t="s">
-        <v>276</v>
-      </c>
-      <c r="C217" t="s">
-        <v>561</v>
+        <v>291</v>
       </c>
       <c r="D217" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="E217" t="s">
-        <v>858</v>
+        <v>907</v>
       </c>
       <c r="G217" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7416,19 +7287,16 @@
         <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>389</v>
-      </c>
-      <c r="C218" t="s">
-        <v>561</v>
+        <v>404</v>
       </c>
       <c r="D218" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
       <c r="E218" t="s">
-        <v>861</v>
+        <v>914</v>
       </c>
       <c r="G218" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7436,19 +7304,16 @@
         <v>86</v>
       </c>
       <c r="B219" t="s">
-        <v>389</v>
-      </c>
-      <c r="C219" t="s">
-        <v>561</v>
+        <v>404</v>
       </c>
       <c r="D219" t="s">
-        <v>765</v>
+        <v>795</v>
       </c>
       <c r="E219" t="s">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="G219" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7456,19 +7321,16 @@
         <v>186</v>
       </c>
       <c r="B220" t="s">
-        <v>390</v>
-      </c>
-      <c r="C220" t="s">
-        <v>561</v>
+        <v>405</v>
       </c>
       <c r="D220" t="s">
-        <v>766</v>
+        <v>670</v>
       </c>
       <c r="E220" t="s">
-        <v>847</v>
+        <v>893</v>
       </c>
       <c r="G220" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7476,19 +7338,16 @@
         <v>187</v>
       </c>
       <c r="B221" t="s">
-        <v>391</v>
-      </c>
-      <c r="C221" t="s">
-        <v>561</v>
+        <v>406</v>
       </c>
       <c r="D221" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="E221" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="G221" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7496,19 +7355,16 @@
         <v>188</v>
       </c>
       <c r="B222" t="s">
-        <v>392</v>
-      </c>
-      <c r="C222" t="s">
-        <v>561</v>
+        <v>407</v>
       </c>
       <c r="D222" t="s">
-        <v>644</v>
+        <v>797</v>
       </c>
       <c r="E222" t="s">
-        <v>867</v>
+        <v>905</v>
       </c>
       <c r="G222" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7516,19 +7372,16 @@
         <v>189</v>
       </c>
       <c r="B223" t="s">
-        <v>393</v>
-      </c>
-      <c r="C223" t="s">
-        <v>561</v>
+        <v>408</v>
       </c>
       <c r="D223" t="s">
-        <v>768</v>
+        <v>798</v>
       </c>
       <c r="E223" t="s">
-        <v>843</v>
+        <v>903</v>
       </c>
       <c r="G223" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7536,19 +7389,16 @@
         <v>190</v>
       </c>
       <c r="B224" t="s">
-        <v>394</v>
-      </c>
-      <c r="C224" t="s">
-        <v>561</v>
+        <v>409</v>
       </c>
       <c r="D224" t="s">
-        <v>769</v>
+        <v>799</v>
       </c>
       <c r="E224" t="s">
-        <v>843</v>
+        <v>913</v>
       </c>
       <c r="G224" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7556,19 +7406,16 @@
         <v>191</v>
       </c>
       <c r="B225" t="s">
-        <v>395</v>
-      </c>
-      <c r="C225" t="s">
-        <v>561</v>
+        <v>410</v>
       </c>
       <c r="D225" t="s">
-        <v>623</v>
+        <v>800</v>
       </c>
       <c r="E225" t="s">
-        <v>861</v>
+        <v>893</v>
       </c>
       <c r="G225" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7576,19 +7423,16 @@
         <v>192</v>
       </c>
       <c r="B226" t="s">
-        <v>396</v>
-      </c>
-      <c r="C226" t="s">
-        <v>561</v>
+        <v>411</v>
       </c>
       <c r="D226" t="s">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="E226" t="s">
-        <v>856</v>
+        <v>899</v>
       </c>
       <c r="G226" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7596,19 +7440,16 @@
         <v>193</v>
       </c>
       <c r="B227" t="s">
-        <v>397</v>
-      </c>
-      <c r="C227" t="s">
-        <v>561</v>
+        <v>412</v>
       </c>
       <c r="D227" t="s">
-        <v>771</v>
+        <v>801</v>
       </c>
       <c r="E227" t="s">
-        <v>861</v>
+        <v>908</v>
       </c>
       <c r="G227" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7616,19 +7457,16 @@
         <v>194</v>
       </c>
       <c r="B228" t="s">
-        <v>398</v>
-      </c>
-      <c r="C228" t="s">
-        <v>561</v>
+        <v>413</v>
       </c>
       <c r="D228" t="s">
-        <v>772</v>
+        <v>802</v>
       </c>
       <c r="E228" t="s">
-        <v>861</v>
+        <v>915</v>
       </c>
       <c r="G228" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7636,19 +7474,16 @@
         <v>85</v>
       </c>
       <c r="B229" t="s">
-        <v>399</v>
-      </c>
-      <c r="C229" t="s">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="D229" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="E229" t="s">
-        <v>848</v>
+        <v>913</v>
       </c>
       <c r="G229" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7658,17 +7493,14 @@
       <c r="B230" t="s">
         <v>118</v>
       </c>
-      <c r="C230" t="s">
-        <v>561</v>
-      </c>
       <c r="D230" t="s">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="E230" t="s">
-        <v>858</v>
+        <v>909</v>
       </c>
       <c r="G230" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7676,19 +7508,16 @@
         <v>196</v>
       </c>
       <c r="B231" t="s">
-        <v>400</v>
-      </c>
-      <c r="C231" t="s">
-        <v>561</v>
+        <v>415</v>
       </c>
       <c r="D231" t="s">
-        <v>768</v>
+        <v>805</v>
       </c>
       <c r="E231" t="s">
-        <v>851</v>
+        <v>897</v>
       </c>
       <c r="G231" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7698,17 +7527,14 @@
       <c r="B232" t="s">
         <v>222</v>
       </c>
-      <c r="C232" t="s">
-        <v>561</v>
-      </c>
       <c r="D232" t="s">
-        <v>775</v>
+        <v>806</v>
       </c>
       <c r="E232" t="s">
-        <v>848</v>
+        <v>903</v>
       </c>
       <c r="G232" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7716,19 +7542,16 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>401</v>
-      </c>
-      <c r="C233" t="s">
-        <v>561</v>
+        <v>416</v>
       </c>
       <c r="D233" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="E233" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="G233" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7736,19 +7559,16 @@
         <v>197</v>
       </c>
       <c r="B234" t="s">
-        <v>402</v>
-      </c>
-      <c r="C234" t="s">
-        <v>561</v>
+        <v>417</v>
       </c>
       <c r="D234" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
       <c r="E234" t="s">
-        <v>853</v>
+        <v>890</v>
       </c>
       <c r="G234" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7756,19 +7576,16 @@
         <v>198</v>
       </c>
       <c r="B235" t="s">
-        <v>403</v>
-      </c>
-      <c r="C235" t="s">
-        <v>561</v>
+        <v>418</v>
       </c>
       <c r="D235" t="s">
-        <v>778</v>
+        <v>809</v>
       </c>
       <c r="E235" t="s">
-        <v>857</v>
+        <v>911</v>
       </c>
       <c r="G235" t="s">
-        <v>890</v>
+        <v>941</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7776,19 +7593,16 @@
         <v>50</v>
       </c>
       <c r="B236" t="s">
-        <v>404</v>
-      </c>
-      <c r="C236" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="D236" t="s">
-        <v>779</v>
+        <v>810</v>
       </c>
       <c r="E236" t="s">
-        <v>842</v>
+        <v>885</v>
       </c>
       <c r="G236" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7796,19 +7610,16 @@
         <v>199</v>
       </c>
       <c r="B237" t="s">
-        <v>405</v>
-      </c>
-      <c r="C237" t="s">
-        <v>561</v>
+        <v>420</v>
       </c>
       <c r="D237" t="s">
-        <v>659</v>
+        <v>811</v>
       </c>
       <c r="E237" t="s">
-        <v>847</v>
+        <v>904</v>
       </c>
       <c r="G237" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7816,19 +7627,16 @@
         <v>200</v>
       </c>
       <c r="B238" t="s">
-        <v>405</v>
-      </c>
-      <c r="C238" t="s">
-        <v>561</v>
+        <v>420</v>
       </c>
       <c r="D238" t="s">
-        <v>780</v>
+        <v>812</v>
       </c>
       <c r="E238" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="G238" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7836,19 +7644,16 @@
         <v>201</v>
       </c>
       <c r="B239" t="s">
-        <v>329</v>
-      </c>
-      <c r="C239" t="s">
-        <v>561</v>
+        <v>344</v>
       </c>
       <c r="D239" t="s">
-        <v>781</v>
+        <v>813</v>
       </c>
       <c r="E239" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="G239" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7856,19 +7661,16 @@
         <v>202</v>
       </c>
       <c r="B240" t="s">
-        <v>333</v>
-      </c>
-      <c r="C240" t="s">
-        <v>561</v>
+        <v>348</v>
       </c>
       <c r="D240" t="s">
-        <v>648</v>
+        <v>814</v>
       </c>
       <c r="E240" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="G240" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7876,19 +7678,16 @@
         <v>203</v>
       </c>
       <c r="B241" t="s">
-        <v>406</v>
-      </c>
-      <c r="C241" t="s">
-        <v>561</v>
+        <v>421</v>
       </c>
       <c r="D241" t="s">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="E241" t="s">
-        <v>872</v>
+        <v>897</v>
       </c>
       <c r="G241" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7896,19 +7695,16 @@
         <v>204</v>
       </c>
       <c r="B242" t="s">
-        <v>407</v>
-      </c>
-      <c r="C242" t="s">
-        <v>561</v>
+        <v>422</v>
       </c>
       <c r="D242" t="s">
-        <v>644</v>
+        <v>816</v>
       </c>
       <c r="E242" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
       <c r="G242" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7916,19 +7712,16 @@
         <v>205</v>
       </c>
       <c r="B243" t="s">
-        <v>408</v>
-      </c>
-      <c r="C243" t="s">
-        <v>561</v>
+        <v>423</v>
       </c>
       <c r="D243" t="s">
-        <v>783</v>
+        <v>817</v>
       </c>
       <c r="E243" t="s">
-        <v>859</v>
+        <v>906</v>
       </c>
       <c r="G243" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7936,19 +7729,16 @@
         <v>35</v>
       </c>
       <c r="B244" t="s">
-        <v>282</v>
-      </c>
-      <c r="C244" t="s">
-        <v>561</v>
+        <v>297</v>
       </c>
       <c r="D244" t="s">
-        <v>784</v>
+        <v>600</v>
       </c>
       <c r="E244" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
       <c r="G244" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7956,19 +7746,16 @@
         <v>33</v>
       </c>
       <c r="B245" t="s">
-        <v>344</v>
-      </c>
-      <c r="C245" t="s">
-        <v>561</v>
+        <v>359</v>
       </c>
       <c r="D245" t="s">
-        <v>785</v>
+        <v>818</v>
       </c>
       <c r="E245" t="s">
-        <v>869</v>
+        <v>890</v>
       </c>
       <c r="G245" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7976,19 +7763,16 @@
         <v>206</v>
       </c>
       <c r="B246" t="s">
-        <v>409</v>
-      </c>
-      <c r="C246" t="s">
-        <v>561</v>
+        <v>424</v>
       </c>
       <c r="D246" t="s">
-        <v>786</v>
+        <v>819</v>
       </c>
       <c r="E246" t="s">
-        <v>846</v>
+        <v>906</v>
       </c>
       <c r="G246" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7996,19 +7780,16 @@
         <v>162</v>
       </c>
       <c r="B247" t="s">
-        <v>410</v>
-      </c>
-      <c r="C247" t="s">
-        <v>561</v>
+        <v>425</v>
       </c>
       <c r="D247" t="s">
-        <v>787</v>
+        <v>820</v>
       </c>
       <c r="E247" t="s">
-        <v>855</v>
+        <v>887</v>
       </c>
       <c r="G247" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -8016,19 +7797,16 @@
         <v>207</v>
       </c>
       <c r="B248" t="s">
-        <v>347</v>
-      </c>
-      <c r="C248" t="s">
-        <v>561</v>
+        <v>362</v>
       </c>
       <c r="D248" t="s">
-        <v>765</v>
+        <v>616</v>
       </c>
       <c r="E248" t="s">
-        <v>865</v>
+        <v>907</v>
       </c>
       <c r="G248" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -8038,17 +7816,14 @@
       <c r="B249" t="s">
         <v>98</v>
       </c>
-      <c r="C249" t="s">
-        <v>561</v>
-      </c>
       <c r="D249" t="s">
-        <v>788</v>
+        <v>821</v>
       </c>
       <c r="E249" t="s">
-        <v>867</v>
+        <v>902</v>
       </c>
       <c r="G249" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -8058,17 +7833,14 @@
       <c r="B250" t="s">
         <v>98</v>
       </c>
-      <c r="C250" t="s">
-        <v>561</v>
-      </c>
       <c r="D250" t="s">
-        <v>743</v>
+        <v>822</v>
       </c>
       <c r="E250" t="s">
-        <v>866</v>
+        <v>910</v>
       </c>
       <c r="G250" t="s">
-        <v>886</v>
+        <v>937</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -8076,19 +7848,16 @@
         <v>47</v>
       </c>
       <c r="B251" t="s">
-        <v>411</v>
-      </c>
-      <c r="C251" t="s">
-        <v>561</v>
+        <v>426</v>
       </c>
       <c r="D251" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E251" t="s">
-        <v>869</v>
+        <v>914</v>
       </c>
       <c r="G251" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -8096,19 +7865,16 @@
         <v>209</v>
       </c>
       <c r="B252" t="s">
-        <v>412</v>
-      </c>
-      <c r="C252" t="s">
-        <v>561</v>
+        <v>427</v>
       </c>
       <c r="D252" t="s">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="E252" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="G252" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -8116,19 +7882,16 @@
         <v>210</v>
       </c>
       <c r="B253" t="s">
-        <v>355</v>
-      </c>
-      <c r="C253" t="s">
-        <v>561</v>
+        <v>370</v>
       </c>
       <c r="D253" t="s">
-        <v>791</v>
+        <v>824</v>
       </c>
       <c r="E253" t="s">
-        <v>869</v>
+        <v>890</v>
       </c>
       <c r="G253" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -8136,19 +7899,16 @@
         <v>202</v>
       </c>
       <c r="B254" t="s">
-        <v>413</v>
-      </c>
-      <c r="C254" t="s">
-        <v>561</v>
+        <v>428</v>
       </c>
       <c r="D254" t="s">
-        <v>758</v>
+        <v>825</v>
       </c>
       <c r="E254" t="s">
-        <v>848</v>
+        <v>898</v>
       </c>
       <c r="G254" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -8156,19 +7916,16 @@
         <v>211</v>
       </c>
       <c r="B255" t="s">
-        <v>414</v>
-      </c>
-      <c r="C255" t="s">
-        <v>561</v>
+        <v>429</v>
       </c>
       <c r="D255" t="s">
-        <v>677</v>
+        <v>826</v>
       </c>
       <c r="E255" t="s">
-        <v>864</v>
+        <v>894</v>
       </c>
       <c r="G255" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -8176,19 +7933,16 @@
         <v>162</v>
       </c>
       <c r="B256" t="s">
-        <v>415</v>
-      </c>
-      <c r="C256" t="s">
-        <v>561</v>
+        <v>430</v>
       </c>
       <c r="D256" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="E256" t="s">
-        <v>873</v>
+        <v>890</v>
       </c>
       <c r="G256" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -8196,19 +7950,16 @@
         <v>27</v>
       </c>
       <c r="B257" t="s">
-        <v>416</v>
-      </c>
-      <c r="C257" t="s">
-        <v>561</v>
+        <v>431</v>
       </c>
       <c r="D257" t="s">
-        <v>793</v>
+        <v>827</v>
       </c>
       <c r="E257" t="s">
-        <v>868</v>
+        <v>894</v>
       </c>
       <c r="G257" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -8216,19 +7967,16 @@
         <v>185</v>
       </c>
       <c r="B258" t="s">
-        <v>417</v>
-      </c>
-      <c r="C258" t="s">
-        <v>561</v>
+        <v>432</v>
       </c>
       <c r="D258" t="s">
-        <v>692</v>
+        <v>755</v>
       </c>
       <c r="E258" t="s">
-        <v>862</v>
+        <v>908</v>
       </c>
       <c r="G258" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -8236,19 +7984,16 @@
         <v>203</v>
       </c>
       <c r="B259" t="s">
-        <v>418</v>
-      </c>
-      <c r="C259" t="s">
-        <v>561</v>
+        <v>433</v>
       </c>
       <c r="D259" t="s">
-        <v>794</v>
+        <v>828</v>
       </c>
       <c r="E259" t="s">
-        <v>846</v>
+        <v>906</v>
       </c>
       <c r="G259" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -8256,19 +8001,16 @@
         <v>132</v>
       </c>
       <c r="B260" t="s">
-        <v>248</v>
-      </c>
-      <c r="C260" t="s">
-        <v>561</v>
+        <v>263</v>
       </c>
       <c r="D260" t="s">
-        <v>795</v>
+        <v>829</v>
       </c>
       <c r="E260" t="s">
-        <v>851</v>
+        <v>910</v>
       </c>
       <c r="G260" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -8276,19 +8018,16 @@
         <v>212</v>
       </c>
       <c r="B261" t="s">
-        <v>248</v>
-      </c>
-      <c r="C261" t="s">
-        <v>561</v>
+        <v>263</v>
       </c>
       <c r="D261" t="s">
-        <v>796</v>
+        <v>830</v>
       </c>
       <c r="E261" t="s">
-        <v>872</v>
+        <v>901</v>
       </c>
       <c r="G261" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -8296,19 +8035,16 @@
         <v>213</v>
       </c>
       <c r="B262" t="s">
-        <v>419</v>
-      </c>
-      <c r="C262" t="s">
-        <v>561</v>
+        <v>434</v>
       </c>
       <c r="D262" t="s">
-        <v>797</v>
+        <v>831</v>
       </c>
       <c r="E262" t="s">
-        <v>866</v>
+        <v>910</v>
       </c>
       <c r="G262" t="s">
-        <v>891</v>
+        <v>942</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -8316,19 +8052,16 @@
         <v>214</v>
       </c>
       <c r="B263" t="s">
-        <v>420</v>
-      </c>
-      <c r="C263" t="s">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D263" t="s">
-        <v>798</v>
+        <v>832</v>
       </c>
       <c r="E263" t="s">
-        <v>845</v>
+        <v>894</v>
       </c>
       <c r="G263" t="s">
-        <v>886</v>
+        <v>937</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -8336,19 +8069,16 @@
         <v>15</v>
       </c>
       <c r="B264" t="s">
-        <v>421</v>
-      </c>
-      <c r="C264" t="s">
-        <v>561</v>
+        <v>436</v>
       </c>
       <c r="D264" t="s">
-        <v>771</v>
+        <v>833</v>
       </c>
       <c r="E264" t="s">
-        <v>847</v>
+        <v>886</v>
       </c>
       <c r="G264" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -8356,19 +8086,16 @@
         <v>215</v>
       </c>
       <c r="B265" t="s">
-        <v>271</v>
-      </c>
-      <c r="C265" t="s">
-        <v>561</v>
+        <v>286</v>
       </c>
       <c r="D265" t="s">
-        <v>799</v>
+        <v>834</v>
       </c>
       <c r="E265" t="s">
-        <v>854</v>
+        <v>888</v>
       </c>
       <c r="G265" t="s">
-        <v>884</v>
+        <v>935</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -8376,19 +8103,16 @@
         <v>203</v>
       </c>
       <c r="B266" t="s">
-        <v>253</v>
-      </c>
-      <c r="C266" t="s">
-        <v>561</v>
+        <v>268</v>
       </c>
       <c r="D266" t="s">
-        <v>800</v>
+        <v>614</v>
       </c>
       <c r="E266" t="s">
-        <v>872</v>
+        <v>915</v>
       </c>
       <c r="G266" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -8396,19 +8120,16 @@
         <v>216</v>
       </c>
       <c r="B267" t="s">
-        <v>253</v>
-      </c>
-      <c r="C267" t="s">
-        <v>561</v>
+        <v>268</v>
       </c>
       <c r="D267" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="E267" t="s">
-        <v>849</v>
+        <v>900</v>
       </c>
       <c r="G267" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -8416,19 +8137,16 @@
         <v>217</v>
       </c>
       <c r="B268" t="s">
-        <v>422</v>
-      </c>
-      <c r="C268" t="s">
-        <v>561</v>
+        <v>437</v>
       </c>
       <c r="D268" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
       <c r="E268" t="s">
-        <v>852</v>
+        <v>898</v>
       </c>
       <c r="G268" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -8436,19 +8154,16 @@
         <v>218</v>
       </c>
       <c r="B269" t="s">
-        <v>306</v>
-      </c>
-      <c r="C269" t="s">
-        <v>561</v>
+        <v>321</v>
       </c>
       <c r="D269" t="s">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="E269" t="s">
-        <v>872</v>
+        <v>901</v>
       </c>
       <c r="G269" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -8456,19 +8171,16 @@
         <v>19</v>
       </c>
       <c r="B270" t="s">
-        <v>306</v>
-      </c>
-      <c r="C270" t="s">
-        <v>561</v>
+        <v>321</v>
       </c>
       <c r="D270" t="s">
-        <v>804</v>
+        <v>838</v>
       </c>
       <c r="E270" t="s">
-        <v>867</v>
+        <v>901</v>
       </c>
       <c r="G270" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -8476,19 +8188,16 @@
         <v>203</v>
       </c>
       <c r="B271" t="s">
-        <v>423</v>
-      </c>
-      <c r="C271" t="s">
-        <v>561</v>
+        <v>438</v>
       </c>
       <c r="D271" t="s">
-        <v>805</v>
+        <v>839</v>
       </c>
       <c r="E271" t="s">
-        <v>851</v>
+        <v>902</v>
       </c>
       <c r="G271" t="s">
-        <v>882</v>
+        <v>933</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -8496,19 +8205,16 @@
         <v>203</v>
       </c>
       <c r="B272" t="s">
-        <v>424</v>
-      </c>
-      <c r="C272" t="s">
-        <v>561</v>
+        <v>439</v>
       </c>
       <c r="D272" t="s">
-        <v>806</v>
+        <v>753</v>
       </c>
       <c r="E272" t="s">
-        <v>857</v>
+        <v>911</v>
       </c>
       <c r="G272" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -8516,19 +8222,16 @@
         <v>162</v>
       </c>
       <c r="B273" t="s">
-        <v>425</v>
-      </c>
-      <c r="C273" t="s">
-        <v>561</v>
+        <v>440</v>
       </c>
       <c r="D273" t="s">
-        <v>807</v>
+        <v>648</v>
       </c>
       <c r="E273" t="s">
-        <v>857</v>
+        <v>911</v>
       </c>
       <c r="G273" t="s">
-        <v>882</v>
+        <v>933</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -8536,19 +8239,16 @@
         <v>142</v>
       </c>
       <c r="B274" t="s">
-        <v>426</v>
-      </c>
-      <c r="C274" t="s">
-        <v>561</v>
+        <v>441</v>
       </c>
       <c r="D274" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="E274" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="G274" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8556,19 +8256,16 @@
         <v>15</v>
       </c>
       <c r="B275" t="s">
-        <v>382</v>
-      </c>
-      <c r="C275" t="s">
-        <v>561</v>
+        <v>397</v>
       </c>
       <c r="D275" t="s">
-        <v>706</v>
+        <v>841</v>
       </c>
       <c r="E275" t="s">
-        <v>853</v>
+        <v>907</v>
       </c>
       <c r="G275" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -8576,19 +8273,16 @@
         <v>219</v>
       </c>
       <c r="B276" t="s">
-        <v>274</v>
-      </c>
-      <c r="C276" t="s">
-        <v>561</v>
+        <v>289</v>
       </c>
       <c r="D276" t="s">
-        <v>719</v>
+        <v>842</v>
       </c>
       <c r="E276" t="s">
-        <v>853</v>
+        <v>897</v>
       </c>
       <c r="G276" t="s">
-        <v>886</v>
+        <v>937</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -8596,19 +8290,16 @@
         <v>220</v>
       </c>
       <c r="B277" t="s">
-        <v>427</v>
-      </c>
-      <c r="C277" t="s">
-        <v>561</v>
+        <v>442</v>
       </c>
       <c r="D277" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="E277" t="s">
-        <v>846</v>
+        <v>899</v>
       </c>
       <c r="G277" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -8616,19 +8307,16 @@
         <v>221</v>
       </c>
       <c r="B278" t="s">
-        <v>428</v>
-      </c>
-      <c r="C278" t="s">
-        <v>561</v>
+        <v>443</v>
       </c>
       <c r="D278" t="s">
-        <v>810</v>
+        <v>844</v>
       </c>
       <c r="E278" t="s">
-        <v>864</v>
+        <v>885</v>
       </c>
       <c r="G278" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8636,19 +8324,16 @@
         <v>222</v>
       </c>
       <c r="B279" t="s">
-        <v>429</v>
-      </c>
-      <c r="C279" t="s">
-        <v>561</v>
+        <v>444</v>
       </c>
       <c r="D279" t="s">
-        <v>811</v>
+        <v>845</v>
       </c>
       <c r="E279" t="s">
-        <v>846</v>
+        <v>892</v>
       </c>
       <c r="G279" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -8656,19 +8341,16 @@
         <v>223</v>
       </c>
       <c r="B280" t="s">
-        <v>430</v>
-      </c>
-      <c r="C280" t="s">
-        <v>561</v>
+        <v>445</v>
       </c>
       <c r="D280" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E280" t="s">
-        <v>863</v>
+        <v>888</v>
       </c>
       <c r="G280" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -8676,19 +8358,16 @@
         <v>224</v>
       </c>
       <c r="B281" t="s">
-        <v>276</v>
-      </c>
-      <c r="C281" t="s">
-        <v>561</v>
+        <v>291</v>
       </c>
       <c r="D281" t="s">
-        <v>813</v>
+        <v>846</v>
       </c>
       <c r="E281" t="s">
-        <v>850</v>
+        <v>896</v>
       </c>
       <c r="G281" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -8696,19 +8375,16 @@
         <v>225</v>
       </c>
       <c r="B282" t="s">
-        <v>431</v>
-      </c>
-      <c r="C282" t="s">
-        <v>561</v>
+        <v>446</v>
       </c>
       <c r="D282" t="s">
-        <v>814</v>
+        <v>847</v>
       </c>
       <c r="E282" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
       <c r="G282" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8716,19 +8392,16 @@
         <v>201</v>
       </c>
       <c r="B283" t="s">
-        <v>432</v>
-      </c>
-      <c r="C283" t="s">
-        <v>561</v>
+        <v>447</v>
       </c>
       <c r="D283" t="s">
-        <v>815</v>
+        <v>848</v>
       </c>
       <c r="E283" t="s">
-        <v>849</v>
+        <v>895</v>
       </c>
       <c r="G283" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8736,19 +8409,16 @@
         <v>46</v>
       </c>
       <c r="B284" t="s">
-        <v>433</v>
-      </c>
-      <c r="C284" t="s">
-        <v>561</v>
+        <v>448</v>
       </c>
       <c r="D284" t="s">
-        <v>816</v>
+        <v>849</v>
       </c>
       <c r="E284" t="s">
-        <v>856</v>
+        <v>906</v>
       </c>
       <c r="G284" t="s">
-        <v>882</v>
+        <v>933</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8756,19 +8426,16 @@
         <v>226</v>
       </c>
       <c r="B285" t="s">
-        <v>434</v>
-      </c>
-      <c r="C285" t="s">
-        <v>561</v>
+        <v>449</v>
       </c>
       <c r="D285" t="s">
-        <v>817</v>
+        <v>727</v>
       </c>
       <c r="E285" t="s">
-        <v>854</v>
+        <v>888</v>
       </c>
       <c r="G285" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8776,19 +8443,16 @@
         <v>38</v>
       </c>
       <c r="B286" t="s">
-        <v>435</v>
-      </c>
-      <c r="C286" t="s">
-        <v>561</v>
+        <v>450</v>
       </c>
       <c r="D286" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="E286" t="s">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="G286" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8796,19 +8460,16 @@
         <v>227</v>
       </c>
       <c r="B287" t="s">
-        <v>436</v>
-      </c>
-      <c r="C287" t="s">
-        <v>561</v>
+        <v>451</v>
       </c>
       <c r="D287" t="s">
-        <v>645</v>
+        <v>851</v>
       </c>
       <c r="E287" t="s">
-        <v>868</v>
+        <v>901</v>
       </c>
       <c r="G287" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8816,19 +8477,16 @@
         <v>27</v>
       </c>
       <c r="B288" t="s">
-        <v>436</v>
-      </c>
-      <c r="C288" t="s">
-        <v>561</v>
+        <v>451</v>
       </c>
       <c r="D288" t="s">
-        <v>653</v>
+        <v>852</v>
       </c>
       <c r="E288" t="s">
-        <v>856</v>
+        <v>911</v>
       </c>
       <c r="G288" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8838,17 +8496,14 @@
       <c r="B289" t="s">
         <v>231</v>
       </c>
-      <c r="C289" t="s">
-        <v>561</v>
-      </c>
       <c r="D289" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
       <c r="E289" t="s">
-        <v>859</v>
+        <v>911</v>
       </c>
       <c r="G289" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -8858,17 +8513,14 @@
       <c r="B290" t="s">
         <v>231</v>
       </c>
-      <c r="C290" t="s">
-        <v>561</v>
-      </c>
       <c r="D290" t="s">
-        <v>820</v>
+        <v>854</v>
       </c>
       <c r="E290" t="s">
-        <v>871</v>
+        <v>892</v>
       </c>
       <c r="G290" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8878,17 +8530,14 @@
       <c r="B291" t="s">
         <v>81</v>
       </c>
-      <c r="C291" t="s">
-        <v>561</v>
-      </c>
       <c r="D291" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
       <c r="E291" t="s">
-        <v>863</v>
+        <v>891</v>
       </c>
       <c r="G291" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8896,19 +8545,16 @@
         <v>112</v>
       </c>
       <c r="B292" t="s">
-        <v>437</v>
-      </c>
-      <c r="C292" t="s">
-        <v>561</v>
+        <v>452</v>
       </c>
       <c r="D292" t="s">
-        <v>799</v>
+        <v>856</v>
       </c>
       <c r="E292" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
       <c r="G292" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8916,19 +8562,19 @@
         <v>230</v>
       </c>
       <c r="B293" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C293" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="D293" t="s">
-        <v>822</v>
+        <v>857</v>
       </c>
       <c r="E293" t="s">
-        <v>846</v>
+        <v>889</v>
       </c>
       <c r="G293" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8936,19 +8582,19 @@
         <v>24</v>
       </c>
       <c r="B294" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C294" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="D294" t="s">
-        <v>823</v>
+        <v>858</v>
       </c>
       <c r="E294" t="s">
-        <v>852</v>
+        <v>905</v>
       </c>
       <c r="G294" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8956,19 +8602,19 @@
         <v>34</v>
       </c>
       <c r="B295" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="C295" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="D295" t="s">
-        <v>824</v>
+        <v>859</v>
       </c>
       <c r="E295" t="s">
-        <v>867</v>
+        <v>898</v>
       </c>
       <c r="G295" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -8976,19 +8622,19 @@
         <v>41</v>
       </c>
       <c r="B296" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C296" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="D296" t="s">
-        <v>825</v>
+        <v>860</v>
       </c>
       <c r="E296" t="s">
-        <v>852</v>
+        <v>905</v>
       </c>
       <c r="G296" t="s">
-        <v>892</v>
+        <v>943</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -8996,19 +8642,19 @@
         <v>39</v>
       </c>
       <c r="B297" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C297" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="D297" t="s">
-        <v>826</v>
+        <v>857</v>
       </c>
       <c r="E297" t="s">
-        <v>867</v>
+        <v>888</v>
       </c>
       <c r="G297" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -9016,19 +8662,19 @@
         <v>231</v>
       </c>
       <c r="B298" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C298" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="D298" t="s">
-        <v>827</v>
+        <v>861</v>
       </c>
       <c r="E298" t="s">
-        <v>854</v>
+        <v>902</v>
       </c>
       <c r="G298" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -9036,19 +8682,19 @@
         <v>232</v>
       </c>
       <c r="B299" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C299" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="D299" t="s">
-        <v>828</v>
+        <v>862</v>
       </c>
       <c r="E299" t="s">
-        <v>852</v>
+        <v>905</v>
       </c>
       <c r="G299" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -9056,19 +8702,19 @@
         <v>233</v>
       </c>
       <c r="B300" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="C300" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="D300" t="s">
-        <v>829</v>
+        <v>863</v>
       </c>
       <c r="E300" t="s">
-        <v>852</v>
+        <v>905</v>
       </c>
       <c r="G300" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -9076,19 +8722,19 @@
         <v>226</v>
       </c>
       <c r="B301" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C301" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="D301" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="E301" t="s">
-        <v>845</v>
+        <v>902</v>
       </c>
       <c r="G301" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -9096,19 +8742,19 @@
         <v>145</v>
       </c>
       <c r="B302" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C302" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D302" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="E302" t="s">
-        <v>851</v>
+        <v>902</v>
       </c>
       <c r="G302" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -9116,19 +8762,19 @@
         <v>43</v>
       </c>
       <c r="B303" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C303" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="D303" t="s">
-        <v>832</v>
+        <v>737</v>
       </c>
       <c r="E303" t="s">
-        <v>854</v>
+        <v>894</v>
       </c>
       <c r="G303" t="s">
-        <v>893</v>
+        <v>944</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -9136,19 +8782,19 @@
         <v>234</v>
       </c>
       <c r="B304" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C304" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="D304" t="s">
-        <v>658</v>
+        <v>866</v>
       </c>
       <c r="E304" t="s">
-        <v>864</v>
+        <v>890</v>
       </c>
       <c r="G304" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -9156,19 +8802,19 @@
         <v>99</v>
       </c>
       <c r="B305" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C305" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="D305" t="s">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="E305" t="s">
-        <v>852</v>
+        <v>905</v>
       </c>
       <c r="G305" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -9176,19 +8822,19 @@
         <v>202</v>
       </c>
       <c r="B306" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C306" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="D306" t="s">
-        <v>687</v>
+        <v>868</v>
       </c>
       <c r="E306" t="s">
-        <v>853</v>
+        <v>907</v>
       </c>
       <c r="G306" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -9196,19 +8842,19 @@
         <v>235</v>
       </c>
       <c r="B307" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C307" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="D307" t="s">
-        <v>834</v>
+        <v>869</v>
       </c>
       <c r="E307" t="s">
-        <v>852</v>
+        <v>905</v>
       </c>
       <c r="G307" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -9216,19 +8862,19 @@
         <v>50</v>
       </c>
       <c r="B308" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C308" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="D308" t="s">
-        <v>835</v>
+        <v>870</v>
       </c>
       <c r="E308" t="s">
-        <v>854</v>
+        <v>894</v>
       </c>
       <c r="G308" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -9236,19 +8882,19 @@
         <v>236</v>
       </c>
       <c r="B309" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C309" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="D309" t="s">
-        <v>836</v>
+        <v>871</v>
       </c>
       <c r="E309" t="s">
-        <v>856</v>
+        <v>900</v>
       </c>
       <c r="G309" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -9256,19 +8902,19 @@
         <v>237</v>
       </c>
       <c r="B310" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C310" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="D310" t="s">
-        <v>837</v>
+        <v>872</v>
       </c>
       <c r="E310" t="s">
-        <v>865</v>
+        <v>915</v>
       </c>
       <c r="G310" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -9276,19 +8922,19 @@
         <v>238</v>
       </c>
       <c r="B311" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C311" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="D311" t="s">
-        <v>838</v>
+        <v>873</v>
       </c>
       <c r="E311" t="s">
-        <v>845</v>
+        <v>897</v>
       </c>
       <c r="G311" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -9296,19 +8942,19 @@
         <v>239</v>
       </c>
       <c r="B312" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C312" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="D312" t="s">
-        <v>839</v>
+        <v>874</v>
       </c>
       <c r="E312" t="s">
-        <v>865</v>
+        <v>915</v>
       </c>
       <c r="G312" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -9316,19 +8962,19 @@
         <v>240</v>
       </c>
       <c r="B313" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C313" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="D313" t="s">
-        <v>712</v>
+        <v>875</v>
       </c>
       <c r="E313" t="s">
-        <v>865</v>
+        <v>915</v>
       </c>
       <c r="G313" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -9336,19 +8982,19 @@
         <v>241</v>
       </c>
       <c r="B314" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C314" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="D314" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E314" t="s">
-        <v>864</v>
+        <v>890</v>
       </c>
       <c r="G314" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -9356,19 +9002,274 @@
         <v>242</v>
       </c>
       <c r="B315" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C315" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="D315" t="s">
-        <v>841</v>
+        <v>876</v>
       </c>
       <c r="E315" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
       <c r="G315" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>243</v>
+      </c>
+      <c r="B316" t="s">
+        <v>462</v>
+      </c>
+      <c r="D316" t="s">
+        <v>824</v>
+      </c>
+      <c r="E316" t="s">
+        <v>917</v>
+      </c>
+      <c r="G316" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>244</v>
+      </c>
+      <c r="B317" t="s">
+        <v>463</v>
+      </c>
+      <c r="D317" t="s">
         <v>877</v>
+      </c>
+      <c r="E317" t="s">
+        <v>918</v>
+      </c>
+      <c r="G317" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>245</v>
+      </c>
+      <c r="B318" t="s">
+        <v>464</v>
+      </c>
+      <c r="D318" t="s">
+        <v>878</v>
+      </c>
+      <c r="E318" t="s">
+        <v>919</v>
+      </c>
+      <c r="G318" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>246</v>
+      </c>
+      <c r="B319" t="s">
+        <v>465</v>
+      </c>
+      <c r="D319" t="s">
+        <v>726</v>
+      </c>
+      <c r="E319" t="s">
+        <v>920</v>
+      </c>
+      <c r="G319" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>247</v>
+      </c>
+      <c r="B320" t="s">
+        <v>466</v>
+      </c>
+      <c r="D320" t="s">
+        <v>879</v>
+      </c>
+      <c r="E320" t="s">
+        <v>921</v>
+      </c>
+      <c r="G320" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>248</v>
+      </c>
+      <c r="B321" t="s">
+        <v>467</v>
+      </c>
+      <c r="D321" t="s">
+        <v>669</v>
+      </c>
+      <c r="E321" t="s">
+        <v>922</v>
+      </c>
+      <c r="G321" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>249</v>
+      </c>
+      <c r="B322" t="s">
+        <v>251</v>
+      </c>
+      <c r="D322" t="s">
+        <v>845</v>
+      </c>
+      <c r="E322" t="s">
+        <v>923</v>
+      </c>
+      <c r="G322" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>250</v>
+      </c>
+      <c r="B323" t="s">
+        <v>468</v>
+      </c>
+      <c r="D323" t="s">
+        <v>856</v>
+      </c>
+      <c r="E323" t="s">
+        <v>924</v>
+      </c>
+      <c r="G323" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" t="s">
+        <v>251</v>
+      </c>
+      <c r="B324" t="s">
+        <v>469</v>
+      </c>
+      <c r="D324" t="s">
+        <v>880</v>
+      </c>
+      <c r="E324" t="s">
+        <v>925</v>
+      </c>
+      <c r="G324" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" t="s">
+        <v>252</v>
+      </c>
+      <c r="B325" t="s">
+        <v>470</v>
+      </c>
+      <c r="D325" t="s">
+        <v>881</v>
+      </c>
+      <c r="E325" t="s">
+        <v>926</v>
+      </c>
+      <c r="G325" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" t="s">
+        <v>253</v>
+      </c>
+      <c r="B326" t="s">
+        <v>471</v>
+      </c>
+      <c r="D326" t="s">
+        <v>845</v>
+      </c>
+      <c r="E326" t="s">
+        <v>926</v>
+      </c>
+      <c r="G326" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" t="s">
+        <v>254</v>
+      </c>
+      <c r="B327" t="s">
+        <v>472</v>
+      </c>
+      <c r="D327" t="s">
+        <v>882</v>
+      </c>
+      <c r="E327" t="s">
+        <v>926</v>
+      </c>
+      <c r="G327" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>255</v>
+      </c>
+      <c r="B328" t="s">
+        <v>473</v>
+      </c>
+      <c r="D328" t="s">
+        <v>883</v>
+      </c>
+      <c r="E328" t="s">
+        <v>926</v>
+      </c>
+      <c r="G328" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" t="s">
+        <v>256</v>
+      </c>
+      <c r="B329" t="s">
+        <v>474</v>
+      </c>
+      <c r="D329" t="s">
+        <v>884</v>
+      </c>
+      <c r="E329" t="s">
+        <v>926</v>
+      </c>
+      <c r="G329" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" t="s">
+        <v>257</v>
+      </c>
+      <c r="B330" t="s">
+        <v>475</v>
+      </c>
+      <c r="D330" t="s">
+        <v>676</v>
+      </c>
+      <c r="E330" t="s">
+        <v>926</v>
+      </c>
+      <c r="G330" t="s">
+        <v>949</v>
       </c>
     </row>
   </sheetData>
